--- a/PatternRecognition-Schedule.xlsx
+++ b/PatternRecognition-Schedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mahriar\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Career\01. IE (Industrial Engineering)\00. Univesity\PHD\Exam Log\WarLog-2026.01.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A192F5-84DD-41D9-9F9E-855D332F7A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B523B3B7-D02D-46BB-B290-0293CF7E8FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39CDB2C7-528F-45AA-A1B4-46CB04FC935A}"/>
   </bookViews>
@@ -114,7 +114,7 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -454,7 +454,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,7 +498,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="3">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.35">

--- a/PatternRecognition-Schedule.xlsx
+++ b/PatternRecognition-Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Career\01. IE (Industrial Engineering)\00. Univesity\PHD\Exam Log\WarLog-2026.01.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B523B3B7-D02D-46BB-B290-0293CF7E8FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF47785-E64E-42E8-B16D-21722279E0F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39CDB2C7-528F-45AA-A1B4-46CB04FC935A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>Duration</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>Actual</t>
+  </si>
+  <si>
+    <t>PCA</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -451,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97E6ABC-EF99-4767-B534-8AB459485FA1}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -465,7 +471,7 @@
     <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -481,12 +487,13 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1">
         <v>6.805555555555555E-2</v>
@@ -494,164 +501,178 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
       <c r="E2" s="3">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+        <v>0.6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1">
-        <v>5.9027777777777776E-2</v>
+        <v>6.805555555555555E-2</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="E3" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1">
-        <v>7.7083333333333337E-2</v>
+        <v>5.9027777777777776E-2</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1">
-        <v>9.375E-2</v>
+        <v>7.7083333333333337E-2</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1">
+        <v>9.375E-2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
         <v>20</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B7" s="1">
         <v>2.6388888888888889E-2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>21</v>
-      </c>
-      <c r="B7" s="1">
-        <v>6.458333333333334E-2</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1">
-        <v>8.7499999999999994E-2</v>
+        <v>6.458333333333334E-2</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1">
-        <v>0.11388888888888889</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.11388888888888889</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
         <v>24</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B11" s="1">
         <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>25</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0.12916666666666668</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1">
-        <v>7.7777777777777779E-2</v>
+        <v>0.12916666666666668</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="1">
-        <v>2.9166666666666667E-2</v>
+        <v>7.7777777777777779E-2</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2.9166666666666667E-2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
         <v>28</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B15" s="1">
         <v>3.4722222222222224E-2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
-        <v>29</v>
-      </c>
-      <c r="B15" s="1">
-        <v>3.4027777777777775E-2</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3.4027777777777775E-2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
         <v>30</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B17" s="1">
         <v>6.3194444444444442E-2</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>7</v>
       </c>
     </row>

--- a/PatternRecognition-Schedule.xlsx
+++ b/PatternRecognition-Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Career\01. IE (Industrial Engineering)\00. Univesity\PHD\Exam Log\WarLog-2026.01.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF47785-E64E-42E8-B16D-21722279E0F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D8BC63-FDC3-4A68-B7D3-19B37079129A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39CDB2C7-528F-45AA-A1B4-46CB04FC935A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Duration</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>Subject</t>
+  </si>
+  <si>
+    <t>Decision Tree</t>
   </si>
 </sst>
 </file>
@@ -460,7 +463,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -519,7 +522,10 @@
         <v>4</v>
       </c>
       <c r="E3" s="3">
-        <v>0.8</v>
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -532,6 +538,9 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
@@ -543,6 +552,9 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
@@ -554,6 +566,9 @@
       <c r="C6" t="s">
         <v>4</v>
       </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
@@ -565,6 +580,9 @@
       <c r="C7" t="s">
         <v>5</v>
       </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
@@ -576,6 +594,9 @@
       <c r="C8" t="s">
         <v>5</v>
       </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
@@ -587,6 +608,9 @@
       <c r="C9" t="s">
         <v>5</v>
       </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
@@ -598,6 +622,9 @@
       <c r="C10" t="s">
         <v>5</v>
       </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
@@ -609,6 +636,9 @@
       <c r="C11" t="s">
         <v>6</v>
       </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
@@ -620,6 +650,9 @@
       <c r="C12" t="s">
         <v>6</v>
       </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
@@ -631,6 +664,9 @@
       <c r="C13" t="s">
         <v>6</v>
       </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
@@ -642,6 +678,9 @@
       <c r="C14" t="s">
         <v>6</v>
       </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
@@ -653,6 +692,9 @@
       <c r="C15" t="s">
         <v>7</v>
       </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
@@ -664,8 +706,11 @@
       <c r="C16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>30</v>
       </c>
@@ -674,6 +719,9 @@
       </c>
       <c r="C17" t="s">
         <v>7</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/PatternRecognition-Schedule.xlsx
+++ b/PatternRecognition-Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Career\01. IE (Industrial Engineering)\00. Univesity\PHD\Exam Log\WarLog-2026.01.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D8BC63-FDC3-4A68-B7D3-19B37079129A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5374F23D-F1E6-436C-98F2-F0463D503AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39CDB2C7-528F-45AA-A1B4-46CB04FC935A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
   <si>
     <t>Duration</t>
   </si>
@@ -521,8 +521,11 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
       <c r="E3" s="3">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>

--- a/PatternRecognition-Schedule.xlsx
+++ b/PatternRecognition-Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Career\01. IE (Industrial Engineering)\00. Univesity\PHD\Exam Log\WarLog-2026.01.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5374F23D-F1E6-436C-98F2-F0463D503AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA8B82D-C51A-48D8-8AFF-D76F8F2049CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39CDB2C7-528F-45AA-A1B4-46CB04FC935A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>Duration</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Decision Tree</t>
+  </si>
+  <si>
+    <t>K-NN &amp; Parzen Window</t>
   </si>
 </sst>
 </file>
@@ -463,7 +466,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -472,6 +475,7 @@
     <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -541,8 +545,14 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
       <c r="E4" s="3">
-        <v>0</v>
+        <v>0.9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.35">

--- a/PatternRecognition-Schedule.xlsx
+++ b/PatternRecognition-Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Career\01. IE (Industrial Engineering)\00. Univesity\PHD\Exam Log\WarLog-2026.01.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA8B82D-C51A-48D8-8AFF-D76F8F2049CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F2FC6B-FDFB-4FCE-A99A-13CEC6E2554B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39CDB2C7-528F-45AA-A1B4-46CB04FC935A}"/>
   </bookViews>
@@ -133,7 +133,78 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -466,7 +537,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -738,6 +809,17 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E2:E17">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThan">
+      <formula>0.89</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>0.9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PatternRecognition-Schedule.xlsx
+++ b/PatternRecognition-Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Career\01. IE (Industrial Engineering)\00. Univesity\PHD\Exam Log\WarLog-2026.01.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F2FC6B-FDFB-4FCE-A99A-13CEC6E2554B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64AE03AB-5300-4366-9ED3-C1CCACAB0F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39CDB2C7-528F-45AA-A1B4-46CB04FC935A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>Duration</t>
   </si>
@@ -75,6 +75,18 @@
   </si>
   <si>
     <t>K-NN &amp; Parzen Window</t>
+  </si>
+  <si>
+    <t>Problem</t>
+  </si>
+  <si>
+    <t>Last test</t>
+  </si>
+  <si>
+    <t>the whole subject</t>
+  </si>
+  <si>
+    <t>Ensemble learning</t>
   </si>
 </sst>
 </file>
@@ -534,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97E6ABC-EF99-4767-B534-8AB459485FA1}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -549,7 +561,7 @@
     <col min="6" max="6" width="19.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -568,8 +580,11 @@
       <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>15</v>
       </c>
@@ -580,13 +595,16 @@
         <v>4</v>
       </c>
       <c r="E2" s="3">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>16</v>
       </c>
@@ -606,7 +624,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>17</v>
       </c>
@@ -626,7 +644,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>18</v>
       </c>
@@ -636,11 +654,20 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
       <c r="E5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+        <v>0.85</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>19</v>
       </c>
@@ -654,7 +681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>20</v>
       </c>
@@ -668,7 +695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>21</v>
       </c>
@@ -682,7 +709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>22</v>
       </c>
@@ -696,7 +723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>23</v>
       </c>
@@ -710,7 +737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>24</v>
       </c>
@@ -724,7 +751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>25</v>
       </c>
@@ -738,7 +765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>26</v>
       </c>
@@ -752,7 +779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>27</v>
       </c>
@@ -766,7 +793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>28</v>
       </c>
@@ -780,7 +807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>29</v>
       </c>

--- a/PatternRecognition-Schedule.xlsx
+++ b/PatternRecognition-Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Career\01. IE (Industrial Engineering)\00. Univesity\PHD\Exam Log\WarLog-2026.01.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64AE03AB-5300-4366-9ED3-C1CCACAB0F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA739E4D-6782-4CFE-B08D-C57F512C1F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39CDB2C7-528F-45AA-A1B4-46CB04FC935A}"/>
   </bookViews>
@@ -549,7 +549,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -559,6 +559,7 @@
     <col min="3" max="4" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">

--- a/PatternRecognition-Schedule.xlsx
+++ b/PatternRecognition-Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Career\01. IE (Industrial Engineering)\00. Univesity\PHD\Exam Log\WarLog-2026.01.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA739E4D-6782-4CFE-B08D-C57F512C1F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D43A9CE-A7E6-49B2-B680-253DAFD92FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39CDB2C7-528F-45AA-A1B4-46CB04FC935A}"/>
   </bookViews>
@@ -110,7 +110,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,6 +120,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -136,11 +142,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -549,7 +557,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -672,10 +680,10 @@
       <c r="A6" s="2">
         <v>19</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="4">
         <v>9.375E-2</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="3">
@@ -686,10 +694,10 @@
       <c r="A7" s="2">
         <v>20</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="4">
         <v>2.6388888888888889E-2</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="3">
@@ -700,10 +708,10 @@
       <c r="A8" s="2">
         <v>21</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="4">
         <v>6.458333333333334E-2</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="3">
@@ -714,10 +722,10 @@
       <c r="A9" s="2">
         <v>22</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="4">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="3">
@@ -728,10 +736,10 @@
       <c r="A10" s="2">
         <v>23</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="4">
         <v>0.11388888888888889</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="3">

--- a/PatternRecognition-Schedule.xlsx
+++ b/PatternRecognition-Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Career\01. IE (Industrial Engineering)\00. Univesity\PHD\Exam Log\WarLog-2026.01.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D43A9CE-A7E6-49B2-B680-253DAFD92FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D0FB67-E910-445C-9BF0-43B290525A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39CDB2C7-528F-45AA-A1B4-46CB04FC935A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
   <si>
     <t>Duration</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>Ensemble learning</t>
+  </si>
+  <si>
+    <t>Bayes</t>
   </si>
 </sst>
 </file>
@@ -153,7 +156,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -181,46 +184,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -557,7 +520,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -686,8 +649,14 @@
       <c r="C6" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
       <c r="E6" s="3">
         <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.35">
@@ -846,14 +815,14 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E17">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThan">
-      <formula>0.89</formula>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>0</formula>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThan">
+      <formula>0.89</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PatternRecognition-Schedule.xlsx
+++ b/PatternRecognition-Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Career\01. IE (Industrial Engineering)\00. Univesity\PHD\Exam Log\WarLog-2026.01.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D0FB67-E910-445C-9BF0-43B290525A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E213F736-5380-4FFD-A1F6-5D5FE834FA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39CDB2C7-528F-45AA-A1B4-46CB04FC935A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>Duration</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>Bayes</t>
+  </si>
+  <si>
+    <t>min error formula</t>
   </si>
 </sst>
 </file>
@@ -520,7 +523,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -653,10 +656,13 @@
         <v>5</v>
       </c>
       <c r="E6" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.35">

--- a/PatternRecognition-Schedule.xlsx
+++ b/PatternRecognition-Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Career\01. IE (Industrial Engineering)\00. Univesity\PHD\Exam Log\WarLog-2026.01.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E213F736-5380-4FFD-A1F6-5D5FE834FA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96248999-EE7F-4D8A-95A9-C3DFE5257F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39CDB2C7-528F-45AA-A1B4-46CB04FC935A}"/>
   </bookViews>
@@ -92,7 +92,7 @@
     <t>Bayes</t>
   </si>
   <si>
-    <t>min error formula</t>
+    <t>too many formulas</t>
   </si>
 </sst>
 </file>
@@ -148,13 +148,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,7 +525,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -646,17 +648,17 @@
       <c r="A6" s="2">
         <v>19</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="6">
         <v>9.375E-2</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="3">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>

--- a/PatternRecognition-Schedule.xlsx
+++ b/PatternRecognition-Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Career\01. IE (Industrial Engineering)\00. Univesity\PHD\Exam Log\WarLog-2026.01.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96248999-EE7F-4D8A-95A9-C3DFE5257F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C365064-D67F-4E10-B3B1-BA2897C33C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39CDB2C7-528F-45AA-A1B4-46CB04FC935A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
   <si>
     <t>Duration</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>too many formulas</t>
+  </si>
+  <si>
+    <t>Naïve Bayes</t>
   </si>
 </sst>
 </file>
@@ -525,7 +528,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -671,14 +674,20 @@
       <c r="A7" s="2">
         <v>20</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="6">
         <v>2.6388888888888889E-2</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
       <c r="E7" s="3">
-        <v>0</v>
+        <v>0.9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.35">

--- a/PatternRecognition-Schedule.xlsx
+++ b/PatternRecognition-Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Career\01. IE (Industrial Engineering)\00. Univesity\PHD\Exam Log\WarLog-2026.01.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C365064-D67F-4E10-B3B1-BA2897C33C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589AE0B6-A23E-4BA2-8682-A177981A9B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39CDB2C7-528F-45AA-A1B4-46CB04FC935A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>Duration</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>Naïve Bayes</t>
+  </si>
+  <si>
+    <t>SVM</t>
   </si>
 </sst>
 </file>
@@ -528,7 +531,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -694,14 +697,23 @@
       <c r="A8" s="2">
         <v>21</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="6">
         <v>6.458333333333334E-2</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>0.9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.35">

--- a/PatternRecognition-Schedule.xlsx
+++ b/PatternRecognition-Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Career\01. IE (Industrial Engineering)\00. Univesity\PHD\Exam Log\WarLog-2026.01.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589AE0B6-A23E-4BA2-8682-A177981A9B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AC4F27-FBB5-48AB-BD96-4DC94D75DA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39CDB2C7-528F-45AA-A1B4-46CB04FC935A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
   <si>
     <t>Duration</t>
   </si>
@@ -531,7 +531,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C9" sqref="B9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -578,7 +578,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="3">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -707,7 +707,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="3">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="F8" t="s">
         <v>20</v>
@@ -726,8 +726,11 @@
       <c r="C9" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.35">

--- a/PatternRecognition-Schedule.xlsx
+++ b/PatternRecognition-Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Career\01. IE (Industrial Engineering)\00. Univesity\PHD\Exam Log\WarLog-2026.01.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AC4F27-FBB5-48AB-BD96-4DC94D75DA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB19EF51-7BCF-434B-8E75-A7F233FD7FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39CDB2C7-528F-45AA-A1B4-46CB04FC935A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
   <si>
     <t>Duration</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>SVM</t>
+  </si>
+  <si>
+    <t>didn't get clear on it</t>
   </si>
 </sst>
 </file>
@@ -531,7 +534,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="B9:C9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -713,7 +716,7 @@
         <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.35">
@@ -731,6 +734,12 @@
       </c>
       <c r="E9" s="3">
         <v>0.6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.35">

--- a/PatternRecognition-Schedule.xlsx
+++ b/PatternRecognition-Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Career\01. IE (Industrial Engineering)\00. Univesity\PHD\Exam Log\WarLog-2026.01.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB19EF51-7BCF-434B-8E75-A7F233FD7FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F078AD8-94DD-43AE-A043-78D9B2A01CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39CDB2C7-528F-45AA-A1B4-46CB04FC935A}"/>
   </bookViews>
@@ -534,7 +534,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -723,10 +723,10 @@
       <c r="A9" s="2">
         <v>22</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="6">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">

--- a/PatternRecognition-Schedule.xlsx
+++ b/PatternRecognition-Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Career\01. IE (Industrial Engineering)\00. Univesity\PHD\Exam Log\WarLog-2026.01.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F078AD8-94DD-43AE-A043-78D9B2A01CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDC277B-5B96-4B50-92CF-BB8D5D628E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39CDB2C7-528F-45AA-A1B4-46CB04FC935A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
   <si>
     <t>Duration</t>
   </si>
@@ -102,6 +102,24 @@
   </si>
   <si>
     <t>didn't get clear on it</t>
+  </si>
+  <si>
+    <t>meaning</t>
+  </si>
+  <si>
+    <t>Not noted</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Minor questions</t>
+  </si>
+  <si>
+    <t>Major review needed</t>
+  </si>
+  <si>
+    <t>Not Started</t>
   </si>
 </sst>
 </file>
@@ -531,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97E6ABC-EF99-4767-B534-8AB459485FA1}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -547,7 +565,7 @@
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -569,8 +587,14 @@
       <c r="G1" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="J1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>15</v>
       </c>
@@ -589,8 +613,14 @@
       <c r="G2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>16</v>
       </c>
@@ -609,8 +639,14 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="J3" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>17</v>
       </c>
@@ -629,8 +665,14 @@
       <c r="F4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="J4" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>18</v>
       </c>
@@ -652,8 +694,14 @@
       <c r="G5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="J5" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>19</v>
       </c>
@@ -675,8 +723,14 @@
       <c r="G6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>20</v>
       </c>
@@ -696,7 +750,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>21</v>
       </c>
@@ -719,7 +773,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>22</v>
       </c>
@@ -742,7 +796,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>23</v>
       </c>
@@ -756,7 +810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>24</v>
       </c>
@@ -770,7 +824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>25</v>
       </c>
@@ -784,7 +838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>26</v>
       </c>
@@ -798,7 +852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>27</v>
       </c>
@@ -812,7 +866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>28</v>
       </c>
@@ -826,7 +880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>29</v>
       </c>

--- a/PatternRecognition-Schedule.xlsx
+++ b/PatternRecognition-Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Career\01. IE (Industrial Engineering)\00. Univesity\PHD\Exam Log\WarLog-2026.01.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDC277B-5B96-4B50-92CF-BB8D5D628E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59886D6-A8A7-469A-863E-9C6BF57E51DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39CDB2C7-528F-45AA-A1B4-46CB04FC935A}"/>
   </bookViews>
@@ -126,7 +126,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,8 +142,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,8 +190,28 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -171,21 +219,246 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="6" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="3" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="2" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="7" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Accent3" xfId="4" builtinId="37"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -552,7 +825,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -562,351 +835,381 @@
     <col min="3" max="4" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="14">
+        <v>15</v>
+      </c>
+      <c r="B2" s="15">
+        <v>6.805555555555555E-2</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="14">
+        <v>16</v>
+      </c>
+      <c r="B3" s="15">
+        <v>6.805555555555555E-2</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="14">
+        <v>17</v>
+      </c>
+      <c r="B4" s="15">
+        <v>5.9027777777777776E-2</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="14">
+        <v>18</v>
+      </c>
+      <c r="B5" s="15">
+        <v>7.7083333333333337E-2</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="17">
+        <v>0.85</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>15</v>
-      </c>
-      <c r="B2" s="1">
-        <v>6.805555555555555E-2</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="14">
+        <v>19</v>
+      </c>
+      <c r="B6" s="19">
+        <v>9.375E-2</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3">
+      <c r="D6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="14">
+        <v>20</v>
+      </c>
+      <c r="B7" s="19">
+        <v>2.6388888888888889E-2</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="J7" s="5">
         <v>0.6</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="3">
+      <c r="K7" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="14">
+        <v>21</v>
+      </c>
+      <c r="B8" s="19">
+        <v>6.458333333333334E-2</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="14">
+        <v>22</v>
+      </c>
+      <c r="B9" s="19">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="14">
+        <v>23</v>
+      </c>
+      <c r="B10" s="21">
+        <v>0.11388888888888889</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17">
         <v>0</v>
       </c>
-      <c r="K2" t="s">
+      <c r="F10" s="16"/>
+      <c r="G10" s="18"/>
+      <c r="J10" s="9">
+        <v>1</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="14">
+        <v>24</v>
+      </c>
+      <c r="B11" s="15">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17">
+        <v>0</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="18"/>
+    </row>
+    <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="14">
+        <v>25</v>
+      </c>
+      <c r="B12" s="15">
+        <v>0.12916666666666668</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17">
+        <v>0</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="14">
+        <v>26</v>
+      </c>
+      <c r="B13" s="15">
+        <v>7.7777777777777779E-2</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17">
+        <v>0</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="18"/>
+    </row>
+    <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="14">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>16</v>
-      </c>
-      <c r="B3" s="1">
-        <v>6.805555555555555E-2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="K3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1">
-        <v>5.9027777777777776E-2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="K4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1">
-        <v>7.7083333333333337E-2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="K5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>19</v>
-      </c>
-      <c r="B6" s="6">
-        <v>9.375E-2</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="3">
-        <v>1</v>
-      </c>
-      <c r="K6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>20</v>
-      </c>
-      <c r="B7" s="6">
-        <v>2.6388888888888889E-2</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>21</v>
-      </c>
-      <c r="B8" s="6">
-        <v>6.458333333333334E-2</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>22</v>
-      </c>
-      <c r="B9" s="6">
-        <v>8.7499999999999994E-2</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>23</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0.11388888888888889</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="B14" s="15">
+        <v>2.9166666666666667E-2</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>24</v>
-      </c>
-      <c r="B11" s="1">
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="F14" s="16"/>
+      <c r="G14" s="18"/>
+    </row>
+    <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="14">
+        <v>28</v>
+      </c>
+      <c r="B15" s="15">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>25</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0.12916666666666668</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="F15" s="16"/>
+      <c r="G15" s="18"/>
+    </row>
+    <row r="16" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" s="14">
+        <v>29</v>
+      </c>
+      <c r="B16" s="15">
+        <v>3.4027777777777775E-2</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
-        <v>26</v>
-      </c>
-      <c r="B13" s="1">
-        <v>7.7777777777777779E-2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="F16" s="16"/>
+      <c r="G16" s="18"/>
+    </row>
+    <row r="17" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="23">
+        <v>30</v>
+      </c>
+      <c r="B17" s="24">
+        <v>6.3194444444444442E-2</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
-        <v>27</v>
-      </c>
-      <c r="B14" s="1">
-        <v>2.9166666666666667E-2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
-        <v>28</v>
-      </c>
-      <c r="B15" s="1">
-        <v>3.4722222222222224E-2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
-        <v>29</v>
-      </c>
-      <c r="B16" s="1">
-        <v>3.4027777777777775E-2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
-        <v>30</v>
-      </c>
-      <c r="B17" s="1">
-        <v>6.3194444444444442E-2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
+      <c r="F17" s="25"/>
+      <c r="G17" s="27"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E17">

--- a/PatternRecognition-Schedule.xlsx
+++ b/PatternRecognition-Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Career\01. IE (Industrial Engineering)\00. Univesity\PHD\Exam Log\WarLog-2026.01.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59886D6-A8A7-469A-863E-9C6BF57E51DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDCBF80-60BE-43A3-A84C-53F73A370042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39CDB2C7-528F-45AA-A1B4-46CB04FC935A}"/>
   </bookViews>
@@ -180,12 +180,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -210,6 +204,12 @@
         <fgColor theme="6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -419,40 +419,103 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="4" fillId="6" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="3" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="2" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="7" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="5" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="6" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent3" xfId="4" builtinId="37"/>
@@ -822,397 +885,467 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97E6ABC-EF99-4767-B534-8AB459485FA1}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="B1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H2" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="14">
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="B3" s="5">
         <v>15</v>
       </c>
-      <c r="B2" s="15">
+      <c r="C3" s="6">
         <v>6.805555555555555E-2</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17">
+      <c r="E3" s="7"/>
+      <c r="F3" s="8">
         <v>0.6</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="G3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="H3" s="28" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="14">
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="B4" s="5">
         <v>16</v>
       </c>
-      <c r="B3" s="15">
+      <c r="C4" s="6">
         <v>6.805555555555555E-2</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="D4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="17">
+      <c r="F4" s="8">
         <v>0.9</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="G4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="18"/>
-    </row>
-    <row r="4" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="14">
+      <c r="H4" s="28"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="5">
         <v>17</v>
       </c>
-      <c r="B4" s="15">
+      <c r="C5" s="6">
         <v>5.9027777777777776E-2</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="D5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="E5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="17">
+      <c r="F5" s="8">
         <v>0.9</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="G5" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="18"/>
-    </row>
-    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="14">
+      <c r="H5" s="28"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="B6" s="5">
         <v>18</v>
       </c>
-      <c r="B5" s="15">
+      <c r="C6" s="6">
         <v>7.7083333333333337E-2</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="D6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="E6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="17">
+      <c r="F6" s="8">
         <v>0.85</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="G6" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="H6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L6" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="14">
+    <row r="7" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="B7" s="5">
         <v>19</v>
       </c>
-      <c r="B6" s="19">
+      <c r="C7" s="11">
         <v>9.375E-2</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="D7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="E7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="17">
+      <c r="F7" s="8">
         <v>0.9</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="G7" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="H7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="3">
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="13">
         <v>0</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="L7" s="14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="14">
+    <row r="8" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="B8" s="5">
         <v>20</v>
       </c>
-      <c r="B7" s="19">
+      <c r="C8" s="11">
         <v>2.6388888888888889E-2</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="D8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="E8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="17">
+      <c r="F8" s="8">
         <v>0.9</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="G8" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="J7" s="5">
+      <c r="H8" s="28"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="15">
         <v>0.6</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="L8" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="14">
+    <row r="9" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="B9" s="5">
         <v>21</v>
       </c>
-      <c r="B8" s="19">
+      <c r="C9" s="11">
         <v>6.458333333333334E-2</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="D9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="E9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="17">
+      <c r="F9" s="8">
         <v>0.6</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="G9" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="H9" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="5">
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="15">
         <v>0.85</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="L9" s="16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="14">
+    <row r="10" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="B10" s="5">
         <v>22</v>
       </c>
-      <c r="B9" s="19">
+      <c r="C10" s="11">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="D10" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="E10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="17">
+      <c r="F10" s="8">
         <v>0.6</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="G10" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="H10" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="7">
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="17">
         <v>0.9</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="L10" s="18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="14">
+    <row r="11" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="5">
         <v>23</v>
       </c>
-      <c r="B10" s="21">
+      <c r="C11" s="19">
         <v>0.11388888888888889</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="D11" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17">
+      <c r="E11" s="7"/>
+      <c r="F11" s="8">
         <v>0</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="18"/>
-      <c r="J10" s="9">
+      <c r="G11" s="27"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="21">
         <v>1</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="L11" s="22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="14">
+    <row r="12" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="B12" s="5">
         <v>24</v>
       </c>
-      <c r="B11" s="15">
+      <c r="C12" s="6">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="D12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17">
+      <c r="E12" s="7"/>
+      <c r="F12" s="8">
         <v>0</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="18"/>
-    </row>
-    <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="14">
+      <c r="G12" s="27"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="B13" s="5">
         <v>25</v>
       </c>
-      <c r="B12" s="15">
+      <c r="C13" s="6">
         <v>0.12916666666666668</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="D13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17">
+      <c r="E13" s="7"/>
+      <c r="F13" s="8">
         <v>0</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="18"/>
-    </row>
-    <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="14">
+      <c r="G13" s="27"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="B14" s="5">
         <v>26</v>
       </c>
-      <c r="B13" s="15">
+      <c r="C14" s="6">
         <v>7.7777777777777779E-2</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="D14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17">
+      <c r="E14" s="7"/>
+      <c r="F14" s="8">
         <v>0</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="18"/>
-    </row>
-    <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A14" s="14">
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="B15" s="5">
         <v>27</v>
       </c>
-      <c r="B14" s="15">
+      <c r="C15" s="6">
         <v>2.9166666666666667E-2</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="D15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17">
+      <c r="E15" s="7"/>
+      <c r="F15" s="8">
         <v>0</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="18"/>
-    </row>
-    <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="14">
+      <c r="G15" s="27"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="B16" s="5">
         <v>28</v>
       </c>
-      <c r="B15" s="15">
+      <c r="C16" s="6">
         <v>3.4722222222222224E-2</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="D16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="17">
+      <c r="E16" s="7"/>
+      <c r="F16" s="8">
         <v>0</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="18"/>
-    </row>
-    <row r="16" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A16" s="14">
+      <c r="G16" s="27"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="B17" s="5">
         <v>29</v>
       </c>
-      <c r="B16" s="15">
+      <c r="C17" s="6">
         <v>3.4027777777777775E-2</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="D17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="17">
+      <c r="E17" s="7"/>
+      <c r="F17" s="8">
         <v>0</v>
       </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="18"/>
-    </row>
-    <row r="17" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="23">
+      <c r="G17" s="27"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="23">
         <v>30</v>
       </c>
-      <c r="B17" s="24">
+      <c r="C18" s="24">
         <v>6.3194444444444442E-2</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="D18" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="26">
+      <c r="E18" s="25"/>
+      <c r="F18" s="26">
         <v>0</v>
       </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="27"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E17">
+  <conditionalFormatting sqref="F3:F18">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/PatternRecognition-Schedule.xlsx
+++ b/PatternRecognition-Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Career\01. IE (Industrial Engineering)\00. Univesity\PHD\Exam Log\WarLog-2026.01.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDCBF80-60BE-43A3-A84C-53F73A370042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918A422D-1993-4390-A221-4A47911286BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39CDB2C7-528F-45AA-A1B4-46CB04FC935A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
   <si>
     <t>Duration</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Actual</t>
   </si>
   <si>
-    <t>PCA</t>
-  </si>
-  <si>
     <t>Subject</t>
   </si>
   <si>
@@ -81,9 +78,6 @@
   </si>
   <si>
     <t>Last test</t>
-  </si>
-  <si>
-    <t>the whole subject</t>
   </si>
   <si>
     <t>Ensemble learning</t>
@@ -885,10 +879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97E6ABC-EF99-4767-B534-8AB459485FA1}">
-  <dimension ref="B1:L19"/>
+  <dimension ref="B1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -921,10 +915,10 @@
         <v>3</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -933,24 +927,16 @@
     </row>
     <row r="3" spans="2:12" ht="18" x14ac:dyDescent="0.3">
       <c r="B3" s="5">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C3" s="6">
-        <v>6.805555555555555E-2</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>4</v>
-      </c>
+        <v>4.791666666666667E-2</v>
+      </c>
+      <c r="D3" s="7"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="28" t="s">
-        <v>15</v>
-      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -958,48 +944,32 @@
     </row>
     <row r="4" spans="2:12" ht="18" x14ac:dyDescent="0.3">
       <c r="B4" s="5">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C4" s="6">
-        <v>6.805555555555555E-2</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>11</v>
-      </c>
+        <v>3.6805555555555557E-2</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="27"/>
       <c r="H4" s="28"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" ht="18" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C5" s="6">
-        <v>5.9027777777777776E-2</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>12</v>
-      </c>
+        <v>6.8750000000000006E-2</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="27"/>
       <c r="H5" s="28"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -1008,196 +978,116 @@
     </row>
     <row r="6" spans="2:12" ht="18" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C6" s="6">
-        <v>7.7083333333333337E-2</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="8">
-        <v>0.85</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>14</v>
-      </c>
+        <v>5.347222222222222E-2</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="28"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
     </row>
     <row r="7" spans="2:12" ht="18" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
-        <v>19</v>
-      </c>
-      <c r="C7" s="11">
-        <v>9.375E-2</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>18</v>
-      </c>
+      <c r="C7" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="13">
-        <v>0</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>27</v>
-      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
     </row>
     <row r="8" spans="2:12" ht="18" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
-        <v>20</v>
-      </c>
-      <c r="C8" s="11">
-        <v>2.6388888888888889E-2</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>19</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="27"/>
       <c r="H8" s="28"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="15">
-        <v>0.6</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>26</v>
-      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
     </row>
     <row r="9" spans="2:12" ht="18" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
-        <v>21</v>
-      </c>
-      <c r="C9" s="11">
-        <v>6.458333333333334E-2</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>21</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C9" s="6">
+        <v>2.2916666666666665E-2</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="15">
-        <v>0.85</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>25</v>
-      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
     </row>
     <row r="10" spans="2:12" ht="18" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
-        <v>22</v>
-      </c>
-      <c r="C10" s="11">
-        <v>8.7499999999999994E-2</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>21</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C10" s="6">
+        <v>5.2777777777777778E-2</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="17">
-        <v>0.9</v>
-      </c>
-      <c r="L10" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="2:12" ht="18" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
-        <v>23</v>
-      </c>
-      <c r="C11" s="19">
-        <v>0.11388888888888889</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>5</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C11" s="6">
+        <v>5.7638888888888892E-2</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="8">
-        <v>0</v>
-      </c>
+      <c r="F11" s="8"/>
       <c r="G11" s="27"/>
       <c r="H11" s="28"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="21">
-        <v>1</v>
-      </c>
-      <c r="L11" s="22" t="s">
-        <v>24</v>
-      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
     </row>
     <row r="12" spans="2:12" ht="18" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C12" s="6">
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>6</v>
-      </c>
+        <v>3.0555555555555555E-2</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="8">
-        <v>0</v>
-      </c>
+      <c r="F12" s="8"/>
       <c r="G12" s="27"/>
       <c r="H12" s="28"/>
       <c r="I12" s="4"/>
@@ -1207,18 +1097,14 @@
     </row>
     <row r="13" spans="2:12" ht="18" x14ac:dyDescent="0.3">
       <c r="B13" s="5">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C13" s="6">
-        <v>0.12916666666666668</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>6</v>
-      </c>
+        <v>0.05</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="8">
-        <v>0</v>
-      </c>
+      <c r="F13" s="8"/>
       <c r="G13" s="27"/>
       <c r="H13" s="28"/>
       <c r="I13" s="4"/>
@@ -1228,18 +1114,14 @@
     </row>
     <row r="14" spans="2:12" ht="18" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C14" s="6">
-        <v>7.7777777777777779E-2</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>6</v>
-      </c>
+        <v>6.458333333333334E-2</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="8">
-        <v>0</v>
-      </c>
+      <c r="F14" s="8"/>
       <c r="G14" s="27"/>
       <c r="H14" s="28"/>
       <c r="I14" s="4"/>
@@ -1249,18 +1131,14 @@
     </row>
     <row r="15" spans="2:12" ht="18" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C15" s="6">
-        <v>2.9166666666666667E-2</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>6</v>
-      </c>
+        <v>2.8472222222222222E-2</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="8">
-        <v>0</v>
-      </c>
+      <c r="F15" s="8"/>
       <c r="G15" s="27"/>
       <c r="H15" s="28"/>
       <c r="I15" s="4"/>
@@ -1270,18 +1148,14 @@
     </row>
     <row r="16" spans="2:12" ht="18" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C16" s="6">
-        <v>3.4722222222222224E-2</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>7</v>
-      </c>
+        <v>5.1388888888888887E-2</v>
+      </c>
+      <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="8">
-        <v>0</v>
-      </c>
+      <c r="F16" s="8"/>
       <c r="G16" s="27"/>
       <c r="H16" s="28"/>
       <c r="I16" s="4"/>
@@ -1291,18 +1165,14 @@
     </row>
     <row r="17" spans="2:12" ht="18" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C17" s="6">
-        <v>3.4027777777777775E-2</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>7</v>
-      </c>
+        <v>6.3888888888888884E-2</v>
+      </c>
+      <c r="D17" s="7"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="8">
-        <v>0</v>
-      </c>
+      <c r="F17" s="8"/>
       <c r="G17" s="27"/>
       <c r="H17" s="28"/>
       <c r="I17" s="4"/>
@@ -1310,42 +1180,396 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="23">
-        <v>30</v>
-      </c>
-      <c r="C18" s="24">
-        <v>6.3194444444444442E-2</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="26">
-        <v>0</v>
-      </c>
-      <c r="G18" s="29"/>
-      <c r="H18" s="30"/>
+    <row r="18" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="B18" s="5">
+        <v>16</v>
+      </c>
+      <c r="C18" s="6">
+        <v>6.805555555555555E-2</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="28"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+    <row r="19" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="5">
+        <v>17</v>
+      </c>
+      <c r="C19" s="6">
+        <v>5.9027777777777776E-2</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="28"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
+    <row r="20" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="B20" s="5">
+        <v>18</v>
+      </c>
+      <c r="C20" s="6">
+        <v>7.7083333333333337E-2</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0.85</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="B21" s="5">
+        <v>19</v>
+      </c>
+      <c r="C21" s="11">
+        <v>9.375E-2</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="13">
+        <v>0</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="B22" s="5">
+        <v>20</v>
+      </c>
+      <c r="C22" s="11">
+        <v>2.6388888888888889E-2</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="28"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="L22" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="B23" s="5">
+        <v>21</v>
+      </c>
+      <c r="C23" s="11">
+        <v>6.458333333333334E-2</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="15">
+        <v>0.85</v>
+      </c>
+      <c r="L23" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="B24" s="5">
+        <v>22</v>
+      </c>
+      <c r="C24" s="11">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="L24" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="5">
+        <v>23</v>
+      </c>
+      <c r="C25" s="19">
+        <v>0.11388888888888889</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="8">
+        <v>0</v>
+      </c>
+      <c r="G25" s="27"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="21">
+        <v>1</v>
+      </c>
+      <c r="L25" s="22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="B26" s="5">
+        <v>24</v>
+      </c>
+      <c r="C26" s="6">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="8">
+        <v>0</v>
+      </c>
+      <c r="G26" s="27"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="B27" s="5">
+        <v>25</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0.12916666666666668</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="8">
+        <v>0</v>
+      </c>
+      <c r="G27" s="27"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="B28" s="5">
+        <v>26</v>
+      </c>
+      <c r="C28" s="6">
+        <v>7.7777777777777779E-2</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="8">
+        <v>0</v>
+      </c>
+      <c r="G28" s="27"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="B29" s="5">
+        <v>27</v>
+      </c>
+      <c r="C29" s="6">
+        <v>2.9166666666666667E-2</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="8">
+        <v>0</v>
+      </c>
+      <c r="G29" s="27"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="B30" s="5">
+        <v>28</v>
+      </c>
+      <c r="C30" s="6">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="8">
+        <v>0</v>
+      </c>
+      <c r="G30" s="27"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+    </row>
+    <row r="31" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="B31" s="5">
+        <v>29</v>
+      </c>
+      <c r="C31" s="6">
+        <v>3.4027777777777775E-2</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="8">
+        <v>0</v>
+      </c>
+      <c r="G31" s="27"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+    </row>
+    <row r="32" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="23">
+        <v>30</v>
+      </c>
+      <c r="C32" s="24">
+        <v>6.3194444444444442E-2</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="25"/>
+      <c r="F32" s="26">
+        <v>0</v>
+      </c>
+      <c r="G32" s="29"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="F3:F18">
+  <conditionalFormatting sqref="F3:F32">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/PatternRecognition-Schedule.xlsx
+++ b/PatternRecognition-Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Career\01. IE (Industrial Engineering)\00. Univesity\PHD\Exam Log\WarLog-2026.01.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918A422D-1993-4390-A221-4A47911286BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B74959C-F81E-4B48-BB29-FAE6A5DBB70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39CDB2C7-528F-45AA-A1B4-46CB04FC935A}"/>
   </bookViews>
@@ -882,7 +882,7 @@
   <dimension ref="B1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -898,7 +898,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -939,8 +939,12 @@
       <c r="H3" s="28"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="K3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="2:12" ht="18" x14ac:dyDescent="0.3">
       <c r="B4" s="5">
@@ -956,8 +960,12 @@
       <c r="H4" s="28"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+      <c r="K4" s="13">
+        <v>0</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="2:12" ht="18" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
@@ -973,8 +981,12 @@
       <c r="H5" s="28"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+      <c r="K5" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="2:12" ht="18" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
@@ -990,8 +1002,12 @@
       <c r="H6" s="28"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="K6" s="15">
+        <v>0.85</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="2:12" ht="18" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
@@ -1007,10 +1023,14 @@
       <c r="H7" s="28"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="K7" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="5">
         <v>6</v>
       </c>
@@ -1024,8 +1044,12 @@
       <c r="H8" s="28"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+      <c r="K8" s="21">
+        <v>1</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" spans="2:12" ht="18" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
@@ -1205,7 +1229,7 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" ht="18" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <v>17</v>
       </c>
@@ -1226,9 +1250,6 @@
       </c>
       <c r="H19" s="28"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
     </row>
     <row r="20" spans="2:12" ht="18" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
@@ -1253,13 +1274,6 @@
         <v>13</v>
       </c>
       <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="10" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="21" spans="2:12" ht="18" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
@@ -1284,13 +1298,6 @@
         <v>16</v>
       </c>
       <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="13">
-        <v>0</v>
-      </c>
-      <c r="L21" s="14" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="22" spans="2:12" ht="18" x14ac:dyDescent="0.3">
       <c r="B22" s="5">
@@ -1313,13 +1320,6 @@
       </c>
       <c r="H22" s="28"/>
       <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="15">
-        <v>0.6</v>
-      </c>
-      <c r="L22" s="16" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="23" spans="2:12" ht="18" x14ac:dyDescent="0.3">
       <c r="B23" s="5">
@@ -1344,13 +1344,6 @@
         <v>19</v>
       </c>
       <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="15">
-        <v>0.85</v>
-      </c>
-      <c r="L23" s="16" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="24" spans="2:12" ht="18" x14ac:dyDescent="0.3">
       <c r="B24" s="5">
@@ -1375,15 +1368,8 @@
         <v>19</v>
       </c>
       <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="17">
-        <v>0.9</v>
-      </c>
-      <c r="L24" s="18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="2:12" ht="18" x14ac:dyDescent="0.3">
       <c r="B25" s="5">
         <v>23</v>
       </c>
@@ -1400,13 +1386,6 @@
       <c r="G25" s="27"/>
       <c r="H25" s="28"/>
       <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="21">
-        <v>1</v>
-      </c>
-      <c r="L25" s="22" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="26" spans="2:12" ht="18" x14ac:dyDescent="0.3">
       <c r="B26" s="5">
@@ -1425,9 +1404,6 @@
       <c r="G26" s="27"/>
       <c r="H26" s="28"/>
       <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
     </row>
     <row r="27" spans="2:12" ht="18" x14ac:dyDescent="0.3">
       <c r="B27" s="5">

--- a/PatternRecognition-Schedule.xlsx
+++ b/PatternRecognition-Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Career\01. IE (Industrial Engineering)\00. Univesity\PHD\Exam Log\WarLog-2026.01.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B74959C-F81E-4B48-BB29-FAE6A5DBB70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C055E414-C188-4CDD-AAAD-DCC8881A6BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39CDB2C7-528F-45AA-A1B4-46CB04FC935A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
   <si>
     <t>Duration</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Actual</t>
+  </si>
+  <si>
+    <t>PCA</t>
   </si>
   <si>
     <t>Subject</t>
@@ -881,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97E6ABC-EF99-4767-B534-8AB459485FA1}">
   <dimension ref="B1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -915,10 +918,10 @@
         <v>3</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -934,7 +937,9 @@
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
+      <c r="F3" s="8">
+        <v>0.9</v>
+      </c>
       <c r="G3" s="27"/>
       <c r="H3" s="28"/>
       <c r="I3" s="4"/>
@@ -943,7 +948,7 @@
         <v>3</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="18" x14ac:dyDescent="0.3">
@@ -955,7 +960,9 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="8"/>
+      <c r="F4" s="8">
+        <v>0.9</v>
+      </c>
       <c r="G4" s="27"/>
       <c r="H4" s="28"/>
       <c r="I4" s="4"/>
@@ -964,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="18" x14ac:dyDescent="0.3">
@@ -976,7 +983,9 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
+      <c r="F5" s="8">
+        <v>0.9</v>
+      </c>
       <c r="G5" s="27"/>
       <c r="H5" s="28"/>
       <c r="I5" s="4"/>
@@ -985,7 +994,7 @@
         <v>0.6</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="18" x14ac:dyDescent="0.3">
@@ -997,7 +1006,9 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
+      <c r="F6" s="8">
+        <v>0.9</v>
+      </c>
       <c r="G6" s="27"/>
       <c r="H6" s="28"/>
       <c r="I6" s="4"/>
@@ -1006,7 +1017,7 @@
         <v>0.85</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="18" x14ac:dyDescent="0.3">
@@ -1018,7 +1029,9 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
+      <c r="F7" s="8">
+        <v>0.9</v>
+      </c>
       <c r="G7" s="27"/>
       <c r="H7" s="28"/>
       <c r="I7" s="4"/>
@@ -1027,7 +1040,7 @@
         <v>0.9</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
@@ -1039,7 +1052,9 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
+      <c r="F8" s="8">
+        <v>0.9</v>
+      </c>
       <c r="G8" s="27"/>
       <c r="H8" s="28"/>
       <c r="I8" s="4"/>
@@ -1048,7 +1063,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="18" x14ac:dyDescent="0.3">
@@ -1060,7 +1075,9 @@
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="8"/>
+      <c r="F9" s="8">
+        <v>0.9</v>
+      </c>
       <c r="G9" s="27"/>
       <c r="H9" s="28"/>
       <c r="I9" s="4"/>
@@ -1077,7 +1094,9 @@
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="8"/>
+      <c r="F10" s="8">
+        <v>0.9</v>
+      </c>
       <c r="G10" s="27"/>
       <c r="H10" s="28"/>
       <c r="I10" s="4"/>
@@ -1094,7 +1113,9 @@
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="8"/>
+      <c r="F11" s="8">
+        <v>0.9</v>
+      </c>
       <c r="G11" s="27"/>
       <c r="H11" s="28"/>
       <c r="I11" s="4"/>
@@ -1111,7 +1132,9 @@
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
+      <c r="F12" s="8">
+        <v>0.9</v>
+      </c>
       <c r="G12" s="27"/>
       <c r="H12" s="28"/>
       <c r="I12" s="4"/>
@@ -1128,7 +1151,9 @@
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="8"/>
+      <c r="F13" s="8">
+        <v>0.9</v>
+      </c>
       <c r="G13" s="27"/>
       <c r="H13" s="28"/>
       <c r="I13" s="4"/>
@@ -1145,7 +1170,9 @@
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="8"/>
+      <c r="F14" s="8">
+        <v>0.9</v>
+      </c>
       <c r="G14" s="27"/>
       <c r="H14" s="28"/>
       <c r="I14" s="4"/>
@@ -1162,7 +1189,9 @@
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="8"/>
+      <c r="F15" s="8">
+        <v>0.9</v>
+      </c>
       <c r="G15" s="27"/>
       <c r="H15" s="28"/>
       <c r="I15" s="4"/>
@@ -1179,7 +1208,9 @@
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="8"/>
+      <c r="F16" s="8">
+        <v>0.9</v>
+      </c>
       <c r="G16" s="27"/>
       <c r="H16" s="28"/>
       <c r="I16" s="4"/>
@@ -1196,9 +1227,15 @@
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="28"/>
+      <c r="F17" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -1221,7 +1258,7 @@
         <v>0.9</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H18" s="28"/>
       <c r="I18" s="4"/>
@@ -1246,7 +1283,7 @@
         <v>0.9</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H19" s="28"/>
       <c r="I19" s="4"/>
@@ -1268,10 +1305,10 @@
         <v>0.85</v>
       </c>
       <c r="G20" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="28" t="s">
         <v>14</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>13</v>
       </c>
       <c r="I20" s="4"/>
     </row>
@@ -1292,10 +1329,10 @@
         <v>0.9</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I21" s="4"/>
     </row>
@@ -1316,7 +1353,7 @@
         <v>0.9</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H22" s="28"/>
       <c r="I22" s="4"/>
@@ -1338,10 +1375,10 @@
         <v>0.6</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I23" s="4"/>
     </row>
@@ -1362,10 +1399,10 @@
         <v>0.6</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I24" s="4"/>
     </row>

--- a/PatternRecognition-Schedule.xlsx
+++ b/PatternRecognition-Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Career\01. IE (Industrial Engineering)\00. Univesity\PHD\Exam Log\WarLog-2026.01.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C055E414-C188-4CDD-AAAD-DCC8881A6BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B418CB-CAA1-4EBE-BFFB-EF87163A25EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39CDB2C7-528F-45AA-A1B4-46CB04FC935A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="41">
   <si>
     <t>Duration</t>
   </si>
@@ -117,6 +117,48 @@
   </si>
   <si>
     <t>Not Started</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Intro</t>
+  </si>
+  <si>
+    <t>Linear Algebra</t>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>Linear Regression</t>
+  </si>
+  <si>
+    <t>Gradient Descent</t>
+  </si>
+  <si>
+    <t>Polynominal Regression</t>
+  </si>
+  <si>
+    <t>Over and under fitting</t>
+  </si>
+  <si>
+    <t>Hold out and crossvalidation</t>
+  </si>
+  <si>
+    <t>Regularization</t>
+  </si>
+  <si>
+    <t>Logistical regression</t>
+  </si>
+  <si>
+    <t>linear classification</t>
+  </si>
+  <si>
+    <t>FLDA</t>
   </si>
 </sst>
 </file>
@@ -884,8 +926,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97E6ABC-EF99-4767-B534-8AB459485FA1}">
   <dimension ref="B1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -935,12 +980,18 @@
       <c r="C3" s="6">
         <v>4.791666666666667E-2</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="F3" s="8">
         <v>0.9</v>
       </c>
-      <c r="G3" s="27"/>
+      <c r="G3" s="27" t="s">
+        <v>28</v>
+      </c>
       <c r="H3" s="28"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -958,12 +1009,18 @@
       <c r="C4" s="6">
         <v>3.6805555555555557E-2</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="F4" s="8">
         <v>0.9</v>
       </c>
-      <c r="G4" s="27"/>
+      <c r="G4" s="27" t="s">
+        <v>29</v>
+      </c>
       <c r="H4" s="28"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -981,12 +1038,18 @@
       <c r="C5" s="6">
         <v>6.8750000000000006E-2</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="F5" s="8">
         <v>0.9</v>
       </c>
-      <c r="G5" s="27"/>
+      <c r="G5" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="H5" s="28"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -1004,12 +1067,18 @@
       <c r="C6" s="6">
         <v>5.347222222222222E-2</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="F6" s="8">
         <v>0.9</v>
       </c>
-      <c r="G6" s="27"/>
+      <c r="G6" s="27" t="s">
+        <v>31</v>
+      </c>
       <c r="H6" s="28"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -1027,12 +1096,18 @@
       <c r="C7" s="6">
         <v>0.05</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="F7" s="8">
         <v>0.9</v>
       </c>
-      <c r="G7" s="27"/>
+      <c r="G7" s="27" t="s">
+        <v>31</v>
+      </c>
       <c r="H7" s="28"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -1050,12 +1125,18 @@
       <c r="C8" s="6">
         <v>0.05</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="F8" s="8">
         <v>0.9</v>
       </c>
-      <c r="G8" s="27"/>
+      <c r="G8" s="27" t="s">
+        <v>32</v>
+      </c>
       <c r="H8" s="28"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -1073,12 +1154,18 @@
       <c r="C9" s="6">
         <v>2.2916666666666665E-2</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="F9" s="8">
         <v>0.9</v>
       </c>
-      <c r="G9" s="27"/>
+      <c r="G9" s="27" t="s">
+        <v>33</v>
+      </c>
       <c r="H9" s="28"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -1092,12 +1179,18 @@
       <c r="C10" s="6">
         <v>5.2777777777777778E-2</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="F10" s="8">
         <v>0.9</v>
       </c>
-      <c r="G10" s="27"/>
+      <c r="G10" s="27" t="s">
+        <v>34</v>
+      </c>
       <c r="H10" s="28"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -1111,12 +1204,18 @@
       <c r="C11" s="6">
         <v>5.7638888888888892E-2</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="D11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="F11" s="8">
         <v>0.9</v>
       </c>
-      <c r="G11" s="27"/>
+      <c r="G11" s="27" t="s">
+        <v>35</v>
+      </c>
       <c r="H11" s="28"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -1130,12 +1229,18 @@
       <c r="C12" s="6">
         <v>3.0555555555555555E-2</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="D12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="F12" s="8">
         <v>0.9</v>
       </c>
-      <c r="G12" s="27"/>
+      <c r="G12" s="27" t="s">
+        <v>36</v>
+      </c>
       <c r="H12" s="28"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -1149,12 +1254,18 @@
       <c r="C13" s="6">
         <v>0.05</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="D13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="F13" s="8">
         <v>0.9</v>
       </c>
-      <c r="G13" s="27"/>
+      <c r="G13" s="27" t="s">
+        <v>37</v>
+      </c>
       <c r="H13" s="28"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -1168,12 +1279,18 @@
       <c r="C14" s="6">
         <v>6.458333333333334E-2</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="D14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="F14" s="8">
         <v>0.9</v>
       </c>
-      <c r="G14" s="27"/>
+      <c r="G14" s="27" t="s">
+        <v>38</v>
+      </c>
       <c r="H14" s="28"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -1187,12 +1304,18 @@
       <c r="C15" s="6">
         <v>2.8472222222222222E-2</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="F15" s="8">
         <v>0.9</v>
       </c>
-      <c r="G15" s="27"/>
+      <c r="G15" s="27" t="s">
+        <v>39</v>
+      </c>
       <c r="H15" s="28"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -1206,12 +1329,18 @@
       <c r="C16" s="6">
         <v>5.1388888888888887E-2</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="F16" s="8">
         <v>0.9</v>
       </c>
-      <c r="G16" s="27"/>
+      <c r="G16" s="27" t="s">
+        <v>40</v>
+      </c>
       <c r="H16" s="28"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -1225,8 +1354,12 @@
       <c r="C17" s="6">
         <v>6.3888888888888884E-2</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+      <c r="D17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="F17" s="8">
         <v>0.6</v>
       </c>

--- a/PatternRecognition-Schedule.xlsx
+++ b/PatternRecognition-Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Career\01. IE (Industrial Engineering)\00. Univesity\PHD\Exam Log\WarLog-2026.01.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B418CB-CAA1-4EBE-BFFB-EF87163A25EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2CEF41-15A7-48B4-BC62-AC618C2AC7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39CDB2C7-528F-45AA-A1B4-46CB04FC935A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="42">
   <si>
     <t>Duration</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>FLDA</t>
+  </si>
+  <si>
+    <t>NN</t>
   </si>
 </sst>
 </file>
@@ -927,10 +930,10 @@
   <dimension ref="B1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1553,7 +1556,9 @@
       <c r="F25" s="8">
         <v>0</v>
       </c>
-      <c r="G25" s="27"/>
+      <c r="G25" s="27" t="s">
+        <v>41</v>
+      </c>
       <c r="H25" s="28"/>
       <c r="I25" s="4"/>
     </row>

--- a/PatternRecognition-Schedule.xlsx
+++ b/PatternRecognition-Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Career\01. IE (Industrial Engineering)\00. Univesity\PHD\Exam Log\WarLog-2026.01.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2CEF41-15A7-48B4-BC62-AC618C2AC7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64F535B-C64C-42A7-B734-1CBF3AA5DFD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39CDB2C7-528F-45AA-A1B4-46CB04FC935A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="43">
   <si>
     <t>Duration</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>NN</t>
+  </si>
+  <si>
+    <t>backprobagation formulas</t>
   </si>
 </sst>
 </file>
@@ -213,18 +216,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -461,26 +458,26 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -492,10 +489,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -504,37 +501,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="5" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="6" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -930,10 +921,10 @@
   <dimension ref="B1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
+      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -943,7 +934,7 @@
     <col min="4" max="5" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -992,10 +983,10 @@
       <c r="F3" s="8">
         <v>0.9</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="28"/>
+      <c r="H3" s="26"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="9" t="s">
@@ -1021,10 +1012,10 @@
       <c r="F4" s="8">
         <v>0.9</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="28"/>
+      <c r="H4" s="26"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="13">
@@ -1050,10 +1041,10 @@
       <c r="F5" s="8">
         <v>0.9</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="28"/>
+      <c r="H5" s="26"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="15">
@@ -1079,10 +1070,10 @@
       <c r="F6" s="8">
         <v>0.9</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="28"/>
+      <c r="H6" s="26"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="15">
@@ -1108,10 +1099,10 @@
       <c r="F7" s="8">
         <v>0.9</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="28"/>
+      <c r="H7" s="26"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="17">
@@ -1137,16 +1128,16 @@
       <c r="F8" s="8">
         <v>0.9</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="28"/>
+      <c r="H8" s="26"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="21">
+      <c r="K8" s="19">
         <v>1</v>
       </c>
-      <c r="L8" s="22" t="s">
+      <c r="L8" s="20" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1166,10 +1157,10 @@
       <c r="F9" s="8">
         <v>0.9</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="28"/>
+      <c r="H9" s="26"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -1191,10 +1182,10 @@
       <c r="F10" s="8">
         <v>0.9</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="28"/>
+      <c r="H10" s="26"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -1216,10 +1207,10 @@
       <c r="F11" s="8">
         <v>0.9</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="28"/>
+      <c r="H11" s="26"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -1241,10 +1232,10 @@
       <c r="F12" s="8">
         <v>0.9</v>
       </c>
-      <c r="G12" s="27" t="s">
+      <c r="G12" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="28"/>
+      <c r="H12" s="26"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -1266,10 +1257,10 @@
       <c r="F13" s="8">
         <v>0.9</v>
       </c>
-      <c r="G13" s="27" t="s">
+      <c r="G13" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="28"/>
+      <c r="H13" s="26"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -1291,10 +1282,10 @@
       <c r="F14" s="8">
         <v>0.9</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="28"/>
+      <c r="H14" s="26"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -1316,10 +1307,10 @@
       <c r="F15" s="8">
         <v>0.9</v>
       </c>
-      <c r="G15" s="27" t="s">
+      <c r="G15" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="28"/>
+      <c r="H15" s="26"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
@@ -1341,10 +1332,10 @@
       <c r="F16" s="8">
         <v>0.9</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="28"/>
+      <c r="H16" s="26"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -1366,10 +1357,10 @@
       <c r="F17" s="8">
         <v>0.6</v>
       </c>
-      <c r="G17" s="27" t="s">
+      <c r="G17" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="28" t="s">
+      <c r="H17" s="26" t="s">
         <v>20</v>
       </c>
       <c r="I17" s="4"/>
@@ -1393,10 +1384,10 @@
       <c r="F18" s="8">
         <v>0.9</v>
       </c>
-      <c r="G18" s="27" t="s">
+      <c r="G18" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="28"/>
+      <c r="H18" s="26"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -1418,10 +1409,10 @@
       <c r="F19" s="8">
         <v>0.9</v>
       </c>
-      <c r="G19" s="27" t="s">
+      <c r="G19" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="28"/>
+      <c r="H19" s="26"/>
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="2:12" ht="18" x14ac:dyDescent="0.3">
@@ -1440,10 +1431,10 @@
       <c r="F20" s="8">
         <v>0.85</v>
       </c>
-      <c r="G20" s="27" t="s">
+      <c r="G20" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="28" t="s">
+      <c r="H20" s="26" t="s">
         <v>14</v>
       </c>
       <c r="I20" s="4"/>
@@ -1464,10 +1455,10 @@
       <c r="F21" s="8">
         <v>0.9</v>
       </c>
-      <c r="G21" s="27" t="s">
+      <c r="G21" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="28" t="s">
+      <c r="H21" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I21" s="4"/>
@@ -1488,10 +1479,10 @@
       <c r="F22" s="8">
         <v>0.9</v>
       </c>
-      <c r="G22" s="27" t="s">
+      <c r="G22" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="28"/>
+      <c r="H22" s="26"/>
       <c r="I22" s="4"/>
     </row>
     <row r="23" spans="2:12" ht="18" x14ac:dyDescent="0.3">
@@ -1510,10 +1501,10 @@
       <c r="F23" s="8">
         <v>0.6</v>
       </c>
-      <c r="G23" s="27" t="s">
+      <c r="G23" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="28" t="s">
+      <c r="H23" s="26" t="s">
         <v>20</v>
       </c>
       <c r="I23" s="4"/>
@@ -1534,10 +1525,10 @@
       <c r="F24" s="8">
         <v>0.6</v>
       </c>
-      <c r="G24" s="27" t="s">
+      <c r="G24" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="28" t="s">
+      <c r="H24" s="26" t="s">
         <v>20</v>
       </c>
       <c r="I24" s="4"/>
@@ -1546,20 +1537,24 @@
       <c r="B25" s="5">
         <v>23</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="11">
         <v>0.11388888888888889</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="F25" s="8">
-        <v>0</v>
-      </c>
-      <c r="G25" s="27" t="s">
+        <v>0.85</v>
+      </c>
+      <c r="G25" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="H25" s="28"/>
+      <c r="H25" s="26" t="s">
+        <v>42</v>
+      </c>
       <c r="I25" s="4"/>
     </row>
     <row r="26" spans="2:12" ht="18" x14ac:dyDescent="0.3">
@@ -1576,8 +1571,8 @@
       <c r="F26" s="8">
         <v>0</v>
       </c>
-      <c r="G26" s="27"/>
-      <c r="H26" s="28"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="26"/>
       <c r="I26" s="4"/>
     </row>
     <row r="27" spans="2:12" ht="18" x14ac:dyDescent="0.3">
@@ -1594,8 +1589,8 @@
       <c r="F27" s="8">
         <v>0</v>
       </c>
-      <c r="G27" s="27"/>
-      <c r="H27" s="28"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="26"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
@@ -1615,8 +1610,8 @@
       <c r="F28" s="8">
         <v>0</v>
       </c>
-      <c r="G28" s="27"/>
-      <c r="H28" s="28"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="26"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -1636,8 +1631,8 @@
       <c r="F29" s="8">
         <v>0</v>
       </c>
-      <c r="G29" s="27"/>
-      <c r="H29" s="28"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="26"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -1657,8 +1652,8 @@
       <c r="F30" s="8">
         <v>0</v>
       </c>
-      <c r="G30" s="27"/>
-      <c r="H30" s="28"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="26"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -1678,29 +1673,29 @@
       <c r="F31" s="8">
         <v>0</v>
       </c>
-      <c r="G31" s="27"/>
-      <c r="H31" s="28"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="26"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
     </row>
     <row r="32" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="23">
+      <c r="B32" s="21">
         <v>30</v>
       </c>
-      <c r="C32" s="24">
+      <c r="C32" s="22">
         <v>6.3194444444444442E-2</v>
       </c>
-      <c r="D32" s="25" t="s">
+      <c r="D32" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="25"/>
-      <c r="F32" s="26">
+      <c r="E32" s="23"/>
+      <c r="F32" s="24">
         <v>0</v>
       </c>
-      <c r="G32" s="29"/>
-      <c r="H32" s="30"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="28"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>

--- a/PatternRecognition-Schedule.xlsx
+++ b/PatternRecognition-Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Career\01. IE (Industrial Engineering)\00. Univesity\PHD\Exam Log\WarLog-2026.01.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64F535B-C64C-42A7-B734-1CBF3AA5DFD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45C619B-A5AC-4A9B-999A-764DBF969F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39CDB2C7-528F-45AA-A1B4-46CB04FC935A}"/>
   </bookViews>
@@ -216,12 +216,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -458,26 +464,26 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -489,10 +495,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -501,31 +507,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="5" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="5" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="6" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -921,10 +933,10 @@
   <dimension ref="B1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomRight" activeCell="D26" sqref="C26:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -983,10 +995,10 @@
       <c r="F3" s="8">
         <v>0.9</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="26"/>
+      <c r="H3" s="28"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="9" t="s">
@@ -1012,10 +1024,10 @@
       <c r="F4" s="8">
         <v>0.9</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="26"/>
+      <c r="H4" s="28"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="13">
@@ -1041,10 +1053,10 @@
       <c r="F5" s="8">
         <v>0.9</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="26"/>
+      <c r="H5" s="28"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="15">
@@ -1070,10 +1082,10 @@
       <c r="F6" s="8">
         <v>0.9</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="26"/>
+      <c r="H6" s="28"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="15">
@@ -1099,10 +1111,10 @@
       <c r="F7" s="8">
         <v>0.9</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="26"/>
+      <c r="H7" s="28"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="17">
@@ -1128,16 +1140,16 @@
       <c r="F8" s="8">
         <v>0.9</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="26"/>
+      <c r="H8" s="28"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="19">
+      <c r="K8" s="21">
         <v>1</v>
       </c>
-      <c r="L8" s="20" t="s">
+      <c r="L8" s="22" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1157,10 +1169,10 @@
       <c r="F9" s="8">
         <v>0.9</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="26"/>
+      <c r="H9" s="28"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -1182,10 +1194,10 @@
       <c r="F10" s="8">
         <v>0.9</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="26"/>
+      <c r="H10" s="28"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -1207,10 +1219,10 @@
       <c r="F11" s="8">
         <v>0.9</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="26"/>
+      <c r="H11" s="28"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -1232,10 +1244,10 @@
       <c r="F12" s="8">
         <v>0.9</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="26"/>
+      <c r="H12" s="28"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -1257,10 +1269,10 @@
       <c r="F13" s="8">
         <v>0.9</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="26"/>
+      <c r="H13" s="28"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -1282,10 +1294,10 @@
       <c r="F14" s="8">
         <v>0.9</v>
       </c>
-      <c r="G14" s="25" t="s">
+      <c r="G14" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="26"/>
+      <c r="H14" s="28"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -1307,10 +1319,10 @@
       <c r="F15" s="8">
         <v>0.9</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="G15" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="26"/>
+      <c r="H15" s="28"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
@@ -1332,10 +1344,10 @@
       <c r="F16" s="8">
         <v>0.9</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="26"/>
+      <c r="H16" s="28"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -1357,10 +1369,10 @@
       <c r="F17" s="8">
         <v>0.6</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="26" t="s">
+      <c r="H17" s="28" t="s">
         <v>20</v>
       </c>
       <c r="I17" s="4"/>
@@ -1384,10 +1396,10 @@
       <c r="F18" s="8">
         <v>0.9</v>
       </c>
-      <c r="G18" s="25" t="s">
+      <c r="G18" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="26"/>
+      <c r="H18" s="28"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -1409,10 +1421,10 @@
       <c r="F19" s="8">
         <v>0.9</v>
       </c>
-      <c r="G19" s="25" t="s">
+      <c r="G19" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="26"/>
+      <c r="H19" s="28"/>
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="2:12" ht="18" x14ac:dyDescent="0.3">
@@ -1431,10 +1443,10 @@
       <c r="F20" s="8">
         <v>0.85</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="26" t="s">
+      <c r="H20" s="28" t="s">
         <v>14</v>
       </c>
       <c r="I20" s="4"/>
@@ -1455,10 +1467,10 @@
       <c r="F21" s="8">
         <v>0.9</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="26" t="s">
+      <c r="H21" s="28" t="s">
         <v>17</v>
       </c>
       <c r="I21" s="4"/>
@@ -1479,10 +1491,10 @@
       <c r="F22" s="8">
         <v>0.9</v>
       </c>
-      <c r="G22" s="25" t="s">
+      <c r="G22" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="26"/>
+      <c r="H22" s="28"/>
       <c r="I22" s="4"/>
     </row>
     <row r="23" spans="2:12" ht="18" x14ac:dyDescent="0.3">
@@ -1501,10 +1513,10 @@
       <c r="F23" s="8">
         <v>0.6</v>
       </c>
-      <c r="G23" s="25" t="s">
+      <c r="G23" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="26" t="s">
+      <c r="H23" s="28" t="s">
         <v>20</v>
       </c>
       <c r="I23" s="4"/>
@@ -1525,10 +1537,10 @@
       <c r="F24" s="8">
         <v>0.6</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="G24" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="26" t="s">
+      <c r="H24" s="28" t="s">
         <v>20</v>
       </c>
       <c r="I24" s="4"/>
@@ -1549,10 +1561,10 @@
       <c r="F25" s="8">
         <v>0.85</v>
       </c>
-      <c r="G25" s="25" t="s">
+      <c r="G25" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="H25" s="26" t="s">
+      <c r="H25" s="28" t="s">
         <v>42</v>
       </c>
       <c r="I25" s="4"/>
@@ -1561,36 +1573,36 @@
       <c r="B26" s="5">
         <v>24</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="19">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="20" t="s">
         <v>6</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="8">
         <v>0</v>
       </c>
-      <c r="G26" s="25"/>
-      <c r="H26" s="26"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="28"/>
       <c r="I26" s="4"/>
     </row>
     <row r="27" spans="2:12" ht="18" x14ac:dyDescent="0.3">
       <c r="B27" s="5">
         <v>25</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="19">
         <v>0.12916666666666668</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="20" t="s">
         <v>6</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="8">
         <v>0</v>
       </c>
-      <c r="G27" s="25"/>
-      <c r="H27" s="26"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="28"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
@@ -1600,18 +1612,18 @@
       <c r="B28" s="5">
         <v>26</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="19">
         <v>7.7777777777777779E-2</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="20" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="8">
         <v>0</v>
       </c>
-      <c r="G28" s="25"/>
-      <c r="H28" s="26"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="28"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -1621,18 +1633,18 @@
       <c r="B29" s="5">
         <v>27</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="19">
         <v>2.9166666666666667E-2</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="20" t="s">
         <v>6</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="8">
         <v>0</v>
       </c>
-      <c r="G29" s="25"/>
-      <c r="H29" s="26"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="28"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -1652,8 +1664,8 @@
       <c r="F30" s="8">
         <v>0</v>
       </c>
-      <c r="G30" s="25"/>
-      <c r="H30" s="26"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="28"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -1673,29 +1685,29 @@
       <c r="F31" s="8">
         <v>0</v>
       </c>
-      <c r="G31" s="25"/>
-      <c r="H31" s="26"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="28"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
     </row>
     <row r="32" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="21">
+      <c r="B32" s="23">
         <v>30</v>
       </c>
-      <c r="C32" s="22">
+      <c r="C32" s="24">
         <v>6.3194444444444442E-2</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="23"/>
-      <c r="F32" s="24">
+      <c r="E32" s="25"/>
+      <c r="F32" s="26">
         <v>0</v>
       </c>
-      <c r="G32" s="27"/>
-      <c r="H32" s="28"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="30"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>

--- a/PatternRecognition-Schedule.xlsx
+++ b/PatternRecognition-Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Career\01. IE (Industrial Engineering)\00. Univesity\PHD\Exam Log\WarLog-2026.01.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45C619B-A5AC-4A9B-999A-764DBF969F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C754CD-D9BD-4A19-A87A-1F490CAF2BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39CDB2C7-528F-45AA-A1B4-46CB04FC935A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="43">
   <si>
     <t>Duration</t>
   </si>
@@ -936,7 +936,7 @@
       <pane xSplit="3" ySplit="8" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="D26" sqref="C26:D29"/>
+      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1579,7 +1579,9 @@
       <c r="D26" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="F26" s="8">
         <v>0</v>
       </c>

--- a/PatternRecognition-Schedule.xlsx
+++ b/PatternRecognition-Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Career\01. IE (Industrial Engineering)\00. Univesity\PHD\Exam Log\WarLog-2026.01.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C754CD-D9BD-4A19-A87A-1F490CAF2BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB88EA6D-A42D-4E8A-A5F1-C137887A8EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39CDB2C7-528F-45AA-A1B4-46CB04FC935A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="42">
   <si>
     <t>Duration</t>
   </si>
@@ -162,9 +162,6 @@
   </si>
   <si>
     <t>NN</t>
-  </si>
-  <si>
-    <t>backprobagation formulas</t>
   </si>
 </sst>
 </file>
@@ -933,10 +930,10 @@
   <dimension ref="B1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="D22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1559,14 +1556,12 @@
         <v>5</v>
       </c>
       <c r="F25" s="8">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="G25" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="H25" s="28" t="s">
-        <v>42</v>
-      </c>
+      <c r="H25" s="28"/>
       <c r="I25" s="4"/>
     </row>
     <row r="26" spans="2:12" ht="18" x14ac:dyDescent="0.3">
@@ -1579,9 +1574,7 @@
       <c r="D26" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>6</v>
-      </c>
+      <c r="E26" s="7"/>
       <c r="F26" s="8">
         <v>0</v>
       </c>

--- a/PatternRecognition-Schedule.xlsx
+++ b/PatternRecognition-Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Career\01. IE (Industrial Engineering)\00. Univesity\PHD\Exam Log\WarLog-2026.01.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB88EA6D-A42D-4E8A-A5F1-C137887A8EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9557953-32A3-4E6A-ADCB-206786716538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39CDB2C7-528F-45AA-A1B4-46CB04FC935A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="43">
   <si>
     <t>Duration</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>NN</t>
+  </si>
+  <si>
+    <t>Evaluation</t>
   </si>
 </sst>
 </file>
@@ -466,7 +469,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -498,12 +501,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="4" fillId="5" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -535,9 +532,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -557,6 +551,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -933,7 +939,7 @@
       <pane xSplit="3" ySplit="8" topLeftCell="D22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomRight" activeCell="D26" sqref="C26:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -992,10 +998,10 @@
       <c r="F3" s="8">
         <v>0.9</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="28"/>
+      <c r="H3" s="25"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="9" t="s">
@@ -1021,16 +1027,16 @@
       <c r="F4" s="8">
         <v>0.9</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="28"/>
+      <c r="H4" s="25"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="13">
+      <c r="K4" s="11">
         <v>0</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="12" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1050,16 +1056,16 @@
       <c r="F5" s="8">
         <v>0.9</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="28"/>
+      <c r="H5" s="25"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="15">
+      <c r="K5" s="13">
         <v>0.6</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="L5" s="14" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1079,16 +1085,16 @@
       <c r="F6" s="8">
         <v>0.9</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="28"/>
+      <c r="H6" s="25"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="15">
+      <c r="K6" s="13">
         <v>0.85</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="L6" s="14" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1108,16 +1114,16 @@
       <c r="F7" s="8">
         <v>0.9</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="28"/>
+      <c r="H7" s="25"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="17">
-        <v>0.9</v>
-      </c>
-      <c r="L7" s="18" t="s">
+      <c r="K7" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="L7" s="16" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1137,16 +1143,16 @@
       <c r="F8" s="8">
         <v>0.9</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="28"/>
+      <c r="H8" s="25"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="21">
+      <c r="K8" s="19">
         <v>1</v>
       </c>
-      <c r="L8" s="22" t="s">
+      <c r="L8" s="20" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1166,10 +1172,10 @@
       <c r="F9" s="8">
         <v>0.9</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="28"/>
+      <c r="H9" s="25"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -1191,10 +1197,10 @@
       <c r="F10" s="8">
         <v>0.9</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="28"/>
+      <c r="H10" s="25"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -1216,10 +1222,10 @@
       <c r="F11" s="8">
         <v>0.9</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="28"/>
+      <c r="H11" s="25"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -1241,10 +1247,10 @@
       <c r="F12" s="8">
         <v>0.9</v>
       </c>
-      <c r="G12" s="27" t="s">
+      <c r="G12" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="28"/>
+      <c r="H12" s="25"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -1266,10 +1272,10 @@
       <c r="F13" s="8">
         <v>0.9</v>
       </c>
-      <c r="G13" s="27" t="s">
+      <c r="G13" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="28"/>
+      <c r="H13" s="25"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -1291,10 +1297,10 @@
       <c r="F14" s="8">
         <v>0.9</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="28"/>
+      <c r="H14" s="25"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -1316,10 +1322,10 @@
       <c r="F15" s="8">
         <v>0.9</v>
       </c>
-      <c r="G15" s="27" t="s">
+      <c r="G15" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="28"/>
+      <c r="H15" s="25"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
@@ -1341,10 +1347,10 @@
       <c r="F16" s="8">
         <v>0.9</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="28"/>
+      <c r="H16" s="25"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -1366,10 +1372,10 @@
       <c r="F17" s="8">
         <v>0.6</v>
       </c>
-      <c r="G17" s="27" t="s">
+      <c r="G17" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="28" t="s">
+      <c r="H17" s="25" t="s">
         <v>20</v>
       </c>
       <c r="I17" s="4"/>
@@ -1393,10 +1399,10 @@
       <c r="F18" s="8">
         <v>0.9</v>
       </c>
-      <c r="G18" s="27" t="s">
+      <c r="G18" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="28"/>
+      <c r="H18" s="25"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -1418,10 +1424,10 @@
       <c r="F19" s="8">
         <v>0.9</v>
       </c>
-      <c r="G19" s="27" t="s">
+      <c r="G19" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="28"/>
+      <c r="H19" s="25"/>
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="2:12" ht="18" x14ac:dyDescent="0.3">
@@ -1440,10 +1446,10 @@
       <c r="F20" s="8">
         <v>0.85</v>
       </c>
-      <c r="G20" s="27" t="s">
+      <c r="G20" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="28" t="s">
+      <c r="H20" s="25" t="s">
         <v>14</v>
       </c>
       <c r="I20" s="4"/>
@@ -1452,10 +1458,10 @@
       <c r="B21" s="5">
         <v>19</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="6">
         <v>9.375E-2</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E21" s="7" t="s">
@@ -1464,10 +1470,10 @@
       <c r="F21" s="8">
         <v>0.9</v>
       </c>
-      <c r="G21" s="27" t="s">
+      <c r="G21" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="28" t="s">
+      <c r="H21" s="25" t="s">
         <v>17</v>
       </c>
       <c r="I21" s="4"/>
@@ -1476,10 +1482,10 @@
       <c r="B22" s="5">
         <v>20</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="6">
         <v>2.6388888888888889E-2</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E22" s="7" t="s">
@@ -1488,20 +1494,20 @@
       <c r="F22" s="8">
         <v>0.9</v>
       </c>
-      <c r="G22" s="27" t="s">
+      <c r="G22" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="28"/>
+      <c r="H22" s="25"/>
       <c r="I22" s="4"/>
     </row>
     <row r="23" spans="2:12" ht="18" x14ac:dyDescent="0.3">
       <c r="B23" s="5">
         <v>21</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="6">
         <v>6.458333333333334E-2</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E23" s="7" t="s">
@@ -1510,10 +1516,10 @@
       <c r="F23" s="8">
         <v>0.6</v>
       </c>
-      <c r="G23" s="27" t="s">
+      <c r="G23" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="28" t="s">
+      <c r="H23" s="25" t="s">
         <v>20</v>
       </c>
       <c r="I23" s="4"/>
@@ -1522,10 +1528,10 @@
       <c r="B24" s="5">
         <v>22</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="6">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E24" s="7" t="s">
@@ -1534,10 +1540,10 @@
       <c r="F24" s="8">
         <v>0.6</v>
       </c>
-      <c r="G24" s="27" t="s">
+      <c r="G24" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="28" t="s">
+      <c r="H24" s="25" t="s">
         <v>20</v>
       </c>
       <c r="I24" s="4"/>
@@ -1546,58 +1552,62 @@
       <c r="B25" s="5">
         <v>23</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="6">
         <v>0.11388888888888889</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F25" s="8">
         <v>0.9</v>
       </c>
-      <c r="G25" s="27" t="s">
+      <c r="G25" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="H25" s="28"/>
+      <c r="H25" s="25"/>
       <c r="I25" s="4"/>
     </row>
     <row r="26" spans="2:12" ht="18" x14ac:dyDescent="0.3">
       <c r="B26" s="5">
         <v>24</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="30">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="F26" s="8">
-        <v>0</v>
-      </c>
-      <c r="G26" s="27"/>
-      <c r="H26" s="28"/>
+        <v>0.9</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26" s="25"/>
       <c r="I26" s="4"/>
     </row>
     <row r="27" spans="2:12" ht="18" x14ac:dyDescent="0.3">
       <c r="B27" s="5">
         <v>25</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="17">
         <v>0.12916666666666668</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="18" t="s">
         <v>6</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="8">
         <v>0</v>
       </c>
-      <c r="G27" s="27"/>
-      <c r="H27" s="28"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="25"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
@@ -1607,18 +1617,18 @@
       <c r="B28" s="5">
         <v>26</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="17">
         <v>7.7777777777777779E-2</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="18" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="8">
         <v>0</v>
       </c>
-      <c r="G28" s="27"/>
-      <c r="H28" s="28"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="25"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -1628,18 +1638,18 @@
       <c r="B29" s="5">
         <v>27</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="17">
         <v>2.9166666666666667E-2</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="18" t="s">
         <v>6</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="8">
         <v>0</v>
       </c>
-      <c r="G29" s="27"/>
-      <c r="H29" s="28"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="25"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -1649,18 +1659,18 @@
       <c r="B30" s="5">
         <v>28</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="17">
         <v>3.4722222222222224E-2</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="8">
         <v>0</v>
       </c>
-      <c r="G30" s="27"/>
-      <c r="H30" s="28"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="25"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -1670,39 +1680,39 @@
       <c r="B31" s="5">
         <v>29</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="17">
         <v>3.4027777777777775E-2</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="8">
         <v>0</v>
       </c>
-      <c r="G31" s="27"/>
-      <c r="H31" s="28"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="25"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
     </row>
     <row r="32" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="23">
+      <c r="B32" s="21">
         <v>30</v>
       </c>
-      <c r="C32" s="24">
+      <c r="C32" s="28">
         <v>6.3194444444444442E-2</v>
       </c>
-      <c r="D32" s="25" t="s">
+      <c r="D32" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="25"/>
-      <c r="F32" s="26">
+      <c r="E32" s="22"/>
+      <c r="F32" s="23">
         <v>0</v>
       </c>
-      <c r="G32" s="29"/>
-      <c r="H32" s="30"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="27"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>

--- a/PatternRecognition-Schedule.xlsx
+++ b/PatternRecognition-Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Career\01. IE (Industrial Engineering)\00. Univesity\PHD\Exam Log\WarLog-2026.01.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9557953-32A3-4E6A-ADCB-206786716538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168F6FB0-6570-4C91-8EED-48C4063FED1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39CDB2C7-528F-45AA-A1B4-46CB04FC935A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="44">
   <si>
     <t>Duration</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>Evaluation</t>
+  </si>
+  <si>
+    <t>Clustering</t>
   </si>
 </sst>
 </file>
@@ -939,7 +942,7 @@
       <pane xSplit="3" ySplit="8" topLeftCell="D22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="D26" sqref="C26:D26"/>
+      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1596,17 +1599,21 @@
       <c r="B27" s="5">
         <v>25</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C27" s="30">
         <v>0.12916666666666668</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="F27" s="8">
-        <v>0</v>
-      </c>
-      <c r="G27" s="24"/>
+        <v>0.9</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>43</v>
+      </c>
       <c r="H27" s="25"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>

--- a/PatternRecognition-Schedule.xlsx
+++ b/PatternRecognition-Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Career\01. IE (Industrial Engineering)\00. Univesity\PHD\Exam Log\WarLog-2026.01.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168F6FB0-6570-4C91-8EED-48C4063FED1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DDFE3F-3FEF-4652-8A42-D0F4D6063595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39CDB2C7-528F-45AA-A1B4-46CB04FC935A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="47">
   <si>
     <t>Duration</t>
   </si>
@@ -168,6 +168,15 @@
   </si>
   <si>
     <t>Clustering</t>
+  </si>
+  <si>
+    <t>Inforcement Learning</t>
+  </si>
+  <si>
+    <t>Markov</t>
+  </si>
+  <si>
+    <t>final slids</t>
   </si>
 </sst>
 </file>
@@ -942,7 +951,7 @@
       <pane xSplit="3" ySplit="8" topLeftCell="D22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
+      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1624,17 +1633,21 @@
       <c r="B28" s="5">
         <v>26</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="30">
         <v>7.7777777777777779E-2</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="7"/>
+      <c r="E28" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="F28" s="8">
-        <v>0</v>
-      </c>
-      <c r="G28" s="24"/>
+        <v>0.9</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>44</v>
+      </c>
       <c r="H28" s="25"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -1645,18 +1658,24 @@
       <c r="B29" s="5">
         <v>27</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C29" s="30">
         <v>2.9166666666666667E-2</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="7"/>
+      <c r="E29" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="F29" s="8">
-        <v>0</v>
-      </c>
-      <c r="G29" s="24"/>
-      <c r="H29" s="25"/>
+        <v>0.85</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" s="25" t="s">
+        <v>46</v>
+      </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>

--- a/PatternRecognition-Schedule.xlsx
+++ b/PatternRecognition-Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Career\01. IE (Industrial Engineering)\00. Univesity\PHD\Exam Log\WarLog-2026.01.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DDFE3F-3FEF-4652-8A42-D0F4D6063595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13AC59A8-87D8-4B5A-8954-344DD0326F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39CDB2C7-528F-45AA-A1B4-46CB04FC935A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="48">
   <si>
     <t>Duration</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>final slids</t>
+  </si>
+  <si>
+    <t>Bayesian Networks</t>
   </si>
 </sst>
 </file>
@@ -951,7 +954,7 @@
       <pane xSplit="3" ySplit="8" topLeftCell="D22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
+      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1685,17 +1688,21 @@
       <c r="B30" s="5">
         <v>28</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="30">
         <v>3.4722222222222224E-2</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="7"/>
+      <c r="E30" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="F30" s="8">
-        <v>0</v>
-      </c>
-      <c r="G30" s="24"/>
+        <v>0.9</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>47</v>
+      </c>
       <c r="H30" s="25"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>

--- a/PatternRecognition-Schedule.xlsx
+++ b/PatternRecognition-Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Career\01. IE (Industrial Engineering)\00. Univesity\PHD\Exam Log\WarLog-2026.01.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13AC59A8-87D8-4B5A-8954-344DD0326F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481D6C83-E74A-4DFE-AFAC-68792F535068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39CDB2C7-528F-45AA-A1B4-46CB04FC935A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="49">
   <si>
     <t>Duration</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>Bayesian Networks</t>
+  </si>
+  <si>
+    <t>Feature selection</t>
   </si>
 </sst>
 </file>
@@ -484,7 +487,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -532,12 +535,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="6" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -954,7 +951,7 @@
       <pane xSplit="3" ySplit="8" topLeftCell="D22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomRight" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1013,10 +1010,10 @@
       <c r="F3" s="8">
         <v>0.9</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="25"/>
+      <c r="H3" s="23"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="9" t="s">
@@ -1042,10 +1039,10 @@
       <c r="F4" s="8">
         <v>0.9</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="25"/>
+      <c r="H4" s="23"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="11">
@@ -1071,10 +1068,10 @@
       <c r="F5" s="8">
         <v>0.9</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="25"/>
+      <c r="H5" s="23"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="13">
@@ -1100,10 +1097,10 @@
       <c r="F6" s="8">
         <v>0.9</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="25"/>
+      <c r="H6" s="23"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="13">
@@ -1129,10 +1126,10 @@
       <c r="F7" s="8">
         <v>0.9</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="25"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="15">
@@ -1158,16 +1155,16 @@
       <c r="F8" s="8">
         <v>0.9</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="25"/>
+      <c r="H8" s="23"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="19">
+      <c r="K8" s="17">
         <v>1</v>
       </c>
-      <c r="L8" s="20" t="s">
+      <c r="L8" s="18" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1187,10 +1184,10 @@
       <c r="F9" s="8">
         <v>0.9</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="25"/>
+      <c r="H9" s="23"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -1212,10 +1209,10 @@
       <c r="F10" s="8">
         <v>0.9</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="25"/>
+      <c r="H10" s="23"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -1237,10 +1234,10 @@
       <c r="F11" s="8">
         <v>0.9</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="25"/>
+      <c r="H11" s="23"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -1262,10 +1259,10 @@
       <c r="F12" s="8">
         <v>0.9</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="25"/>
+      <c r="H12" s="23"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -1287,10 +1284,10 @@
       <c r="F13" s="8">
         <v>0.9</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="25"/>
+      <c r="H13" s="23"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -1312,10 +1309,10 @@
       <c r="F14" s="8">
         <v>0.9</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="25"/>
+      <c r="H14" s="23"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -1337,10 +1334,10 @@
       <c r="F15" s="8">
         <v>0.9</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="25"/>
+      <c r="H15" s="23"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
@@ -1362,10 +1359,10 @@
       <c r="F16" s="8">
         <v>0.9</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="25"/>
+      <c r="H16" s="23"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -1387,10 +1384,10 @@
       <c r="F17" s="8">
         <v>0.6</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="25" t="s">
+      <c r="H17" s="23" t="s">
         <v>20</v>
       </c>
       <c r="I17" s="4"/>
@@ -1414,10 +1411,10 @@
       <c r="F18" s="8">
         <v>0.9</v>
       </c>
-      <c r="G18" s="24" t="s">
+      <c r="G18" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="25"/>
+      <c r="H18" s="23"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -1439,10 +1436,10 @@
       <c r="F19" s="8">
         <v>0.9</v>
       </c>
-      <c r="G19" s="24" t="s">
+      <c r="G19" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="25"/>
+      <c r="H19" s="23"/>
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="2:12" ht="18" x14ac:dyDescent="0.3">
@@ -1461,10 +1458,10 @@
       <c r="F20" s="8">
         <v>0.85</v>
       </c>
-      <c r="G20" s="24" t="s">
+      <c r="G20" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="25" t="s">
+      <c r="H20" s="23" t="s">
         <v>14</v>
       </c>
       <c r="I20" s="4"/>
@@ -1485,10 +1482,10 @@
       <c r="F21" s="8">
         <v>0.9</v>
       </c>
-      <c r="G21" s="24" t="s">
+      <c r="G21" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="25" t="s">
+      <c r="H21" s="23" t="s">
         <v>17</v>
       </c>
       <c r="I21" s="4"/>
@@ -1509,10 +1506,10 @@
       <c r="F22" s="8">
         <v>0.9</v>
       </c>
-      <c r="G22" s="24" t="s">
+      <c r="G22" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="25"/>
+      <c r="H22" s="23"/>
       <c r="I22" s="4"/>
     </row>
     <row r="23" spans="2:12" ht="18" x14ac:dyDescent="0.3">
@@ -1531,10 +1528,10 @@
       <c r="F23" s="8">
         <v>0.6</v>
       </c>
-      <c r="G23" s="24" t="s">
+      <c r="G23" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="25" t="s">
+      <c r="H23" s="23" t="s">
         <v>20</v>
       </c>
       <c r="I23" s="4"/>
@@ -1555,10 +1552,10 @@
       <c r="F24" s="8">
         <v>0.6</v>
       </c>
-      <c r="G24" s="24" t="s">
+      <c r="G24" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="25" t="s">
+      <c r="H24" s="23" t="s">
         <v>20</v>
       </c>
       <c r="I24" s="4"/>
@@ -1579,20 +1576,20 @@
       <c r="F25" s="8">
         <v>0.9</v>
       </c>
-      <c r="G25" s="24" t="s">
+      <c r="G25" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="H25" s="25"/>
+      <c r="H25" s="23"/>
       <c r="I25" s="4"/>
     </row>
     <row r="26" spans="2:12" ht="18" x14ac:dyDescent="0.3">
       <c r="B26" s="5">
         <v>24</v>
       </c>
-      <c r="C26" s="30">
+      <c r="C26" s="28">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="29" t="s">
         <v>6</v>
       </c>
       <c r="E26" s="7" t="s">
@@ -1601,20 +1598,20 @@
       <c r="F26" s="8">
         <v>0.9</v>
       </c>
-      <c r="G26" s="24" t="s">
+      <c r="G26" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="H26" s="25"/>
+      <c r="H26" s="23"/>
       <c r="I26" s="4"/>
     </row>
     <row r="27" spans="2:12" ht="18" x14ac:dyDescent="0.3">
       <c r="B27" s="5">
         <v>25</v>
       </c>
-      <c r="C27" s="30">
+      <c r="C27" s="28">
         <v>0.12916666666666668</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="29" t="s">
         <v>6</v>
       </c>
       <c r="E27" s="7" t="s">
@@ -1623,10 +1620,10 @@
       <c r="F27" s="8">
         <v>0.9</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="G27" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="25"/>
+      <c r="H27" s="23"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
@@ -1636,10 +1633,10 @@
       <c r="B28" s="5">
         <v>26</v>
       </c>
-      <c r="C28" s="30">
+      <c r="C28" s="28">
         <v>7.7777777777777779E-2</v>
       </c>
-      <c r="D28" s="31" t="s">
+      <c r="D28" s="29" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="7" t="s">
@@ -1648,10 +1645,10 @@
       <c r="F28" s="8">
         <v>0.9</v>
       </c>
-      <c r="G28" s="24" t="s">
+      <c r="G28" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="H28" s="25"/>
+      <c r="H28" s="23"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -1661,10 +1658,10 @@
       <c r="B29" s="5">
         <v>27</v>
       </c>
-      <c r="C29" s="30">
+      <c r="C29" s="28">
         <v>2.9166666666666667E-2</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="29" t="s">
         <v>6</v>
       </c>
       <c r="E29" s="7" t="s">
@@ -1673,10 +1670,10 @@
       <c r="F29" s="8">
         <v>0.85</v>
       </c>
-      <c r="G29" s="24" t="s">
+      <c r="G29" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="H29" s="25" t="s">
+      <c r="H29" s="23" t="s">
         <v>46</v>
       </c>
       <c r="I29" s="4"/>
@@ -1688,10 +1685,10 @@
       <c r="B30" s="5">
         <v>28</v>
       </c>
-      <c r="C30" s="30">
+      <c r="C30" s="28">
         <v>3.4722222222222224E-2</v>
       </c>
-      <c r="D30" s="31" t="s">
+      <c r="D30" s="29" t="s">
         <v>7</v>
       </c>
       <c r="E30" s="7" t="s">
@@ -1700,10 +1697,10 @@
       <c r="F30" s="8">
         <v>0.9</v>
       </c>
-      <c r="G30" s="24" t="s">
+      <c r="G30" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="H30" s="25"/>
+      <c r="H30" s="23"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -1713,39 +1710,43 @@
       <c r="B31" s="5">
         <v>29</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C31" s="28">
         <v>3.4027777777777775E-2</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="7"/>
+      <c r="E31" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="F31" s="8">
-        <v>0</v>
-      </c>
-      <c r="G31" s="24"/>
-      <c r="H31" s="25"/>
+        <v>0.9</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="H31" s="23"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
     </row>
     <row r="32" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="21">
+      <c r="B32" s="19">
         <v>30</v>
       </c>
-      <c r="C32" s="28">
+      <c r="C32" s="26">
         <v>6.3194444444444442E-2</v>
       </c>
-      <c r="D32" s="29" t="s">
+      <c r="D32" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="22"/>
-      <c r="F32" s="23">
+      <c r="E32" s="20"/>
+      <c r="F32" s="21">
         <v>0</v>
       </c>
-      <c r="G32" s="26"/>
-      <c r="H32" s="27"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="25"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>

--- a/PatternRecognition-Schedule.xlsx
+++ b/PatternRecognition-Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Career\01. IE (Industrial Engineering)\00. Univesity\PHD\Exam Log\WarLog-2026.01.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481D6C83-E74A-4DFE-AFAC-68792F535068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D310E02F-4B71-4F1B-A743-1D9A6AF4A262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39CDB2C7-528F-45AA-A1B4-46CB04FC935A}"/>
   </bookViews>
@@ -234,18 +234,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -482,26 +476,26 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -513,37 +507,37 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="5" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="6" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -564,16 +558,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -951,7 +942,7 @@
       <pane xSplit="3" ySplit="8" topLeftCell="D22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="G31" sqref="G31"/>
+      <selection pane="bottomRight" activeCell="D32" sqref="C32:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1586,10 +1577,10 @@
       <c r="B26" s="5">
         <v>24</v>
       </c>
-      <c r="C26" s="28">
+      <c r="C26" s="26">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="D26" s="29" t="s">
+      <c r="D26" s="27" t="s">
         <v>6</v>
       </c>
       <c r="E26" s="7" t="s">
@@ -1608,10 +1599,10 @@
       <c r="B27" s="5">
         <v>25</v>
       </c>
-      <c r="C27" s="28">
+      <c r="C27" s="26">
         <v>0.12916666666666668</v>
       </c>
-      <c r="D27" s="29" t="s">
+      <c r="D27" s="27" t="s">
         <v>6</v>
       </c>
       <c r="E27" s="7" t="s">
@@ -1633,10 +1624,10 @@
       <c r="B28" s="5">
         <v>26</v>
       </c>
-      <c r="C28" s="28">
+      <c r="C28" s="26">
         <v>7.7777777777777779E-2</v>
       </c>
-      <c r="D28" s="29" t="s">
+      <c r="D28" s="27" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="7" t="s">
@@ -1658,10 +1649,10 @@
       <c r="B29" s="5">
         <v>27</v>
       </c>
-      <c r="C29" s="28">
+      <c r="C29" s="26">
         <v>2.9166666666666667E-2</v>
       </c>
-      <c r="D29" s="29" t="s">
+      <c r="D29" s="27" t="s">
         <v>6</v>
       </c>
       <c r="E29" s="7" t="s">
@@ -1685,10 +1676,10 @@
       <c r="B30" s="5">
         <v>28</v>
       </c>
-      <c r="C30" s="28">
+      <c r="C30" s="26">
         <v>3.4722222222222224E-2</v>
       </c>
-      <c r="D30" s="29" t="s">
+      <c r="D30" s="27" t="s">
         <v>7</v>
       </c>
       <c r="E30" s="7" t="s">
@@ -1710,10 +1701,10 @@
       <c r="B31" s="5">
         <v>29</v>
       </c>
-      <c r="C31" s="28">
+      <c r="C31" s="26">
         <v>3.4027777777777775E-2</v>
       </c>
-      <c r="D31" s="29" t="s">
+      <c r="D31" s="27" t="s">
         <v>7</v>
       </c>
       <c r="E31" s="7" t="s">
@@ -1735,10 +1726,10 @@
       <c r="B32" s="19">
         <v>30</v>
       </c>
-      <c r="C32" s="26">
+      <c r="C32" s="28">
         <v>6.3194444444444442E-2</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="D32" s="28" t="s">
         <v>7</v>
       </c>
       <c r="E32" s="20"/>

--- a/PatternRecognition-Schedule.xlsx
+++ b/PatternRecognition-Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Career\01. IE (Industrial Engineering)\00. Univesity\PHD\Exam Log\WarLog-2026.01.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D310E02F-4B71-4F1B-A743-1D9A6AF4A262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798628BE-41C7-4A0A-912A-89E6D0A19368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39CDB2C7-528F-45AA-A1B4-46CB04FC935A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="51">
   <si>
     <t>Duration</t>
   </si>
@@ -183,6 +183,12 @@
   </si>
   <si>
     <t>Feature selection</t>
+  </si>
+  <si>
+    <t>final formulas</t>
+  </si>
+  <si>
+    <t>Learning Theory</t>
   </si>
 </sst>
 </file>
@@ -481,7 +487,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -538,9 +544,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -939,10 +942,10 @@
   <dimension ref="B1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="D22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="D32" sqref="C32:D32"/>
+      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1001,10 +1004,10 @@
       <c r="F3" s="8">
         <v>0.9</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="23"/>
+      <c r="H3" s="22"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="9" t="s">
@@ -1030,10 +1033,10 @@
       <c r="F4" s="8">
         <v>0.9</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="23"/>
+      <c r="H4" s="22"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="11">
@@ -1059,10 +1062,10 @@
       <c r="F5" s="8">
         <v>0.9</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="23"/>
+      <c r="H5" s="22"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="13">
@@ -1088,10 +1091,10 @@
       <c r="F6" s="8">
         <v>0.9</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="23"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="13">
@@ -1117,10 +1120,10 @@
       <c r="F7" s="8">
         <v>0.9</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="23"/>
+      <c r="H7" s="22"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="15">
@@ -1146,10 +1149,10 @@
       <c r="F8" s="8">
         <v>0.9</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="23"/>
+      <c r="H8" s="22"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="17">
@@ -1175,10 +1178,10 @@
       <c r="F9" s="8">
         <v>0.9</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="23"/>
+      <c r="H9" s="22"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -1200,10 +1203,10 @@
       <c r="F10" s="8">
         <v>0.9</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="23"/>
+      <c r="H10" s="22"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -1225,10 +1228,10 @@
       <c r="F11" s="8">
         <v>0.9</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="23"/>
+      <c r="H11" s="22"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -1250,10 +1253,10 @@
       <c r="F12" s="8">
         <v>0.9</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="23"/>
+      <c r="H12" s="22"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -1275,10 +1278,10 @@
       <c r="F13" s="8">
         <v>0.9</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="23"/>
+      <c r="H13" s="22"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -1300,10 +1303,10 @@
       <c r="F14" s="8">
         <v>0.9</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="23"/>
+      <c r="H14" s="22"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -1325,10 +1328,10 @@
       <c r="F15" s="8">
         <v>0.9</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="23"/>
+      <c r="H15" s="22"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
@@ -1350,10 +1353,10 @@
       <c r="F16" s="8">
         <v>0.9</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="23"/>
+      <c r="H16" s="22"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -1375,10 +1378,10 @@
       <c r="F17" s="8">
         <v>0.6</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="23" t="s">
+      <c r="H17" s="22" t="s">
         <v>20</v>
       </c>
       <c r="I17" s="4"/>
@@ -1402,10 +1405,10 @@
       <c r="F18" s="8">
         <v>0.9</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="23"/>
+      <c r="H18" s="22"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -1427,10 +1430,10 @@
       <c r="F19" s="8">
         <v>0.9</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G19" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="23"/>
+      <c r="H19" s="22"/>
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="2:12" ht="18" x14ac:dyDescent="0.3">
@@ -1449,10 +1452,10 @@
       <c r="F20" s="8">
         <v>0.85</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="G20" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="23" t="s">
+      <c r="H20" s="22" t="s">
         <v>14</v>
       </c>
       <c r="I20" s="4"/>
@@ -1473,10 +1476,10 @@
       <c r="F21" s="8">
         <v>0.9</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="22" t="s">
         <v>17</v>
       </c>
       <c r="I21" s="4"/>
@@ -1497,10 +1500,10 @@
       <c r="F22" s="8">
         <v>0.9</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G22" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="23"/>
+      <c r="H22" s="22"/>
       <c r="I22" s="4"/>
     </row>
     <row r="23" spans="2:12" ht="18" x14ac:dyDescent="0.3">
@@ -1519,10 +1522,10 @@
       <c r="F23" s="8">
         <v>0.6</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="23" t="s">
+      <c r="H23" s="22" t="s">
         <v>20</v>
       </c>
       <c r="I23" s="4"/>
@@ -1543,10 +1546,10 @@
       <c r="F24" s="8">
         <v>0.6</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="23" t="s">
+      <c r="H24" s="22" t="s">
         <v>20</v>
       </c>
       <c r="I24" s="4"/>
@@ -1567,20 +1570,20 @@
       <c r="F25" s="8">
         <v>0.9</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="H25" s="23"/>
+      <c r="H25" s="22"/>
       <c r="I25" s="4"/>
     </row>
     <row r="26" spans="2:12" ht="18" x14ac:dyDescent="0.3">
       <c r="B26" s="5">
         <v>24</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C26" s="25">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="26" t="s">
         <v>6</v>
       </c>
       <c r="E26" s="7" t="s">
@@ -1589,20 +1592,20 @@
       <c r="F26" s="8">
         <v>0.9</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H26" s="23"/>
+      <c r="H26" s="22"/>
       <c r="I26" s="4"/>
     </row>
     <row r="27" spans="2:12" ht="18" x14ac:dyDescent="0.3">
       <c r="B27" s="5">
         <v>25</v>
       </c>
-      <c r="C27" s="26">
+      <c r="C27" s="25">
         <v>0.12916666666666668</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="26" t="s">
         <v>6</v>
       </c>
       <c r="E27" s="7" t="s">
@@ -1611,10 +1614,10 @@
       <c r="F27" s="8">
         <v>0.9</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="23"/>
+      <c r="H27" s="22"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
@@ -1624,10 +1627,10 @@
       <c r="B28" s="5">
         <v>26</v>
       </c>
-      <c r="C28" s="26">
+      <c r="C28" s="25">
         <v>7.7777777777777779E-2</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="26" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="7" t="s">
@@ -1636,10 +1639,10 @@
       <c r="F28" s="8">
         <v>0.9</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="H28" s="23"/>
+      <c r="H28" s="22"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -1649,10 +1652,10 @@
       <c r="B29" s="5">
         <v>27</v>
       </c>
-      <c r="C29" s="26">
+      <c r="C29" s="25">
         <v>2.9166666666666667E-2</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="26" t="s">
         <v>6</v>
       </c>
       <c r="E29" s="7" t="s">
@@ -1661,10 +1664,10 @@
       <c r="F29" s="8">
         <v>0.85</v>
       </c>
-      <c r="G29" s="22" t="s">
+      <c r="G29" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="H29" s="23" t="s">
+      <c r="H29" s="22" t="s">
         <v>46</v>
       </c>
       <c r="I29" s="4"/>
@@ -1676,10 +1679,10 @@
       <c r="B30" s="5">
         <v>28</v>
       </c>
-      <c r="C30" s="26">
+      <c r="C30" s="25">
         <v>3.4722222222222224E-2</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="26" t="s">
         <v>7</v>
       </c>
       <c r="E30" s="7" t="s">
@@ -1688,10 +1691,10 @@
       <c r="F30" s="8">
         <v>0.9</v>
       </c>
-      <c r="G30" s="22" t="s">
+      <c r="G30" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="H30" s="23"/>
+      <c r="H30" s="22"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -1701,10 +1704,10 @@
       <c r="B31" s="5">
         <v>29</v>
       </c>
-      <c r="C31" s="26">
+      <c r="C31" s="25">
         <v>3.4027777777777775E-2</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="26" t="s">
         <v>7</v>
       </c>
       <c r="E31" s="7" t="s">
@@ -1713,10 +1716,10 @@
       <c r="F31" s="8">
         <v>0.9</v>
       </c>
-      <c r="G31" s="22" t="s">
+      <c r="G31" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="H31" s="23"/>
+      <c r="H31" s="22"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -1726,18 +1729,24 @@
       <c r="B32" s="19">
         <v>30</v>
       </c>
-      <c r="C32" s="28">
+      <c r="C32" s="27">
         <v>6.3194444444444442E-2</v>
       </c>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="20"/>
-      <c r="F32" s="21">
-        <v>0</v>
-      </c>
-      <c r="G32" s="24"/>
-      <c r="H32" s="25"/>
+      <c r="E32" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="20">
+        <v>0.85</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>49</v>
+      </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>

--- a/PatternRecognition-Schedule.xlsx
+++ b/PatternRecognition-Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Career\01. IE (Industrial Engineering)\00. Univesity\PHD\Exam Log\WarLog-2026.01.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798628BE-41C7-4A0A-912A-89E6D0A19368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB31C798-4EE8-4477-B418-A12F00CC4A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39CDB2C7-528F-45AA-A1B4-46CB04FC935A}"/>
   </bookViews>
@@ -487,7 +487,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -561,13 +561,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -942,10 +936,10 @@
   <dimension ref="B1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
+      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1447,7 +1441,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F20" s="8">
         <v>0.85</v>
@@ -1580,10 +1574,10 @@
       <c r="B26" s="5">
         <v>24</v>
       </c>
-      <c r="C26" s="25">
+      <c r="C26" s="6">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E26" s="7" t="s">
@@ -1602,10 +1596,10 @@
       <c r="B27" s="5">
         <v>25</v>
       </c>
-      <c r="C27" s="25">
+      <c r="C27" s="6">
         <v>0.12916666666666668</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E27" s="7" t="s">
@@ -1627,10 +1621,10 @@
       <c r="B28" s="5">
         <v>26</v>
       </c>
-      <c r="C28" s="25">
+      <c r="C28" s="6">
         <v>7.7777777777777779E-2</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="7" t="s">
@@ -1652,10 +1646,10 @@
       <c r="B29" s="5">
         <v>27</v>
       </c>
-      <c r="C29" s="25">
+      <c r="C29" s="6">
         <v>2.9166666666666667E-2</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E29" s="7" t="s">
@@ -1679,10 +1673,10 @@
       <c r="B30" s="5">
         <v>28</v>
       </c>
-      <c r="C30" s="25">
+      <c r="C30" s="6">
         <v>3.4722222222222224E-2</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E30" s="7" t="s">
@@ -1704,10 +1698,10 @@
       <c r="B31" s="5">
         <v>29</v>
       </c>
-      <c r="C31" s="25">
+      <c r="C31" s="6">
         <v>3.4027777777777775E-2</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E31" s="7" t="s">
@@ -1729,13 +1723,13 @@
       <c r="B32" s="19">
         <v>30</v>
       </c>
-      <c r="C32" s="27">
+      <c r="C32" s="25">
         <v>6.3194444444444442E-2</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="D32" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="27" t="s">
+      <c r="E32" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F32" s="20">

--- a/PatternRecognition-Schedule.xlsx
+++ b/PatternRecognition-Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Career\01. IE (Industrial Engineering)\00. Univesity\PHD\Exam Log\WarLog-2026.01.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB31C798-4EE8-4477-B418-A12F00CC4A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E36D8C-8DD6-420F-AD1E-4464C078B2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39CDB2C7-528F-45AA-A1B4-46CB04FC935A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="50">
   <si>
     <t>Duration</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>Problem</t>
-  </si>
-  <si>
-    <t>Last test</t>
   </si>
   <si>
     <t>Ensemble learning</t>
@@ -936,10 +933,10 @@
   <dimension ref="B1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -990,16 +987,16 @@
         <v>4.791666666666667E-2</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="G3" s="21" t="s">
         <v>27</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>28</v>
       </c>
       <c r="H3" s="22"/>
       <c r="I3" s="4"/>
@@ -1008,7 +1005,7 @@
         <v>3</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="18" x14ac:dyDescent="0.3">
@@ -1019,16 +1016,16 @@
         <v>3.6805555555555557E-2</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="8">
         <v>0.9</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H4" s="22"/>
       <c r="I4" s="4"/>
@@ -1037,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="18" x14ac:dyDescent="0.3">
@@ -1048,16 +1045,16 @@
         <v>6.8750000000000006E-2</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="8">
         <v>0.9</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H5" s="22"/>
       <c r="I5" s="4"/>
@@ -1066,7 +1063,7 @@
         <v>0.6</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="18" x14ac:dyDescent="0.3">
@@ -1077,16 +1074,16 @@
         <v>5.347222222222222E-2</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" s="8">
         <v>0.9</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H6" s="22"/>
       <c r="I6" s="4"/>
@@ -1095,7 +1092,7 @@
         <v>0.85</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="18" x14ac:dyDescent="0.3">
@@ -1106,16 +1103,16 @@
         <v>0.05</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" s="8">
         <v>0.9</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7" s="22"/>
       <c r="I7" s="4"/>
@@ -1124,7 +1121,7 @@
         <v>0.9</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
@@ -1135,16 +1132,16 @@
         <v>0.05</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" s="8">
         <v>0.9</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8" s="22"/>
       <c r="I8" s="4"/>
@@ -1153,7 +1150,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="18" x14ac:dyDescent="0.3">
@@ -1164,16 +1161,16 @@
         <v>2.2916666666666665E-2</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" s="8">
         <v>0.9</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H9" s="22"/>
       <c r="I9" s="4"/>
@@ -1189,16 +1186,16 @@
         <v>5.2777777777777778E-2</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" s="8">
         <v>0.9</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H10" s="22"/>
       <c r="I10" s="4"/>
@@ -1214,16 +1211,16 @@
         <v>5.7638888888888892E-2</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11" s="8">
         <v>0.9</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H11" s="22"/>
       <c r="I11" s="4"/>
@@ -1239,16 +1236,16 @@
         <v>3.0555555555555555E-2</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12" s="8">
         <v>0.9</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H12" s="22"/>
       <c r="I12" s="4"/>
@@ -1264,16 +1261,16 @@
         <v>0.05</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F13" s="8">
         <v>0.9</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H13" s="22"/>
       <c r="I13" s="4"/>
@@ -1289,16 +1286,16 @@
         <v>6.458333333333334E-2</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14" s="8">
         <v>0.9</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H14" s="22"/>
       <c r="I14" s="4"/>
@@ -1314,16 +1311,16 @@
         <v>2.8472222222222222E-2</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15" s="8">
         <v>0.9</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15" s="22"/>
       <c r="I15" s="4"/>
@@ -1339,16 +1336,16 @@
         <v>5.1388888888888887E-2</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F16" s="8">
         <v>0.9</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H16" s="22"/>
       <c r="I16" s="4"/>
@@ -1364,10 +1361,10 @@
         <v>6.3888888888888884E-2</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F17" s="8">
         <v>0.6</v>
@@ -1376,7 +1373,7 @@
         <v>9</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -1444,14 +1441,12 @@
         <v>7</v>
       </c>
       <c r="F20" s="8">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="22" t="s">
         <v>14</v>
       </c>
+      <c r="H20" s="22"/>
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="2:12" ht="18" x14ac:dyDescent="0.3">
@@ -1471,10 +1466,10 @@
         <v>0.9</v>
       </c>
       <c r="G21" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="22" t="s">
         <v>16</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>17</v>
       </c>
       <c r="I21" s="4"/>
     </row>
@@ -1495,7 +1490,7 @@
         <v>0.9</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H22" s="22"/>
       <c r="I22" s="4"/>
@@ -1517,10 +1512,10 @@
         <v>0.6</v>
       </c>
       <c r="G23" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="22" t="s">
         <v>19</v>
-      </c>
-      <c r="H23" s="22" t="s">
-        <v>20</v>
       </c>
       <c r="I23" s="4"/>
     </row>
@@ -1541,10 +1536,10 @@
         <v>0.6</v>
       </c>
       <c r="G24" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="22" t="s">
         <v>19</v>
-      </c>
-      <c r="H24" s="22" t="s">
-        <v>20</v>
       </c>
       <c r="I24" s="4"/>
     </row>
@@ -1565,7 +1560,7 @@
         <v>0.9</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H25" s="22"/>
       <c r="I25" s="4"/>
@@ -1587,7 +1582,7 @@
         <v>0.9</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H26" s="22"/>
       <c r="I26" s="4"/>
@@ -1609,7 +1604,7 @@
         <v>0.9</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H27" s="22"/>
       <c r="I27" s="4"/>
@@ -1634,7 +1629,7 @@
         <v>0.9</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H28" s="22"/>
       <c r="I28" s="4"/>
@@ -1659,10 +1654,10 @@
         <v>0.85</v>
       </c>
       <c r="G29" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H29" s="22" t="s">
         <v>45</v>
-      </c>
-      <c r="H29" s="22" t="s">
-        <v>46</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -1686,7 +1681,7 @@
         <v>0.9</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" s="22"/>
       <c r="I30" s="4"/>
@@ -1711,7 +1706,7 @@
         <v>0.9</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H31" s="22"/>
       <c r="I31" s="4"/>
@@ -1736,10 +1731,10 @@
         <v>0.85</v>
       </c>
       <c r="G32" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H32" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>

--- a/PatternRecognition-Schedule.xlsx
+++ b/PatternRecognition-Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Career\01. IE (Industrial Engineering)\00. Univesity\PHD\Exam Log\WarLog-2026.01.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E36D8C-8DD6-420F-AD1E-4464C078B2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45000469-A59F-4D12-9234-A6E36B31C650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39CDB2C7-528F-45AA-A1B4-46CB04FC935A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="51">
   <si>
     <t>Duration</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>Learning Theory</t>
+  </si>
+  <si>
+    <t>2025.01.18</t>
   </si>
 </sst>
 </file>
@@ -933,10 +936,10 @@
   <dimension ref="B1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1364,17 +1367,15 @@
         <v>26</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="F17" s="8">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="G17" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="22" t="s">
-        <v>19</v>
-      </c>
+      <c r="H17" s="22"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>

--- a/PatternRecognition-Schedule.xlsx
+++ b/PatternRecognition-Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Career\01. IE (Industrial Engineering)\00. Univesity\PHD\Exam Log\WarLog-2026.01.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45000469-A59F-4D12-9234-A6E36B31C650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC47E68-1D2F-487D-AAA3-866588F5539B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39CDB2C7-528F-45AA-A1B4-46CB04FC935A}"/>
   </bookViews>
@@ -936,10 +936,10 @@
   <dimension ref="B1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomRight" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/PatternRecognition-Schedule.xlsx
+++ b/PatternRecognition-Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Career\01. IE (Industrial Engineering)\00. Univesity\PHD\Exam Log\WarLog-2026.01.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC47E68-1D2F-487D-AAA3-866588F5539B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176E82E4-B519-4FFF-9B48-9B5F1D8DE1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39CDB2C7-528F-45AA-A1B4-46CB04FC935A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="50">
   <si>
     <t>Duration</t>
   </si>
@@ -171,9 +171,6 @@
   </si>
   <si>
     <t>Markov</t>
-  </si>
-  <si>
-    <t>final slids</t>
   </si>
   <si>
     <t>Bayesian Networks</t>
@@ -936,10 +933,10 @@
   <dimension ref="B1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="D22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="G24" sqref="G24"/>
+      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1367,7 +1364,7 @@
         <v>26</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F17" s="8">
         <v>0.9</v>
@@ -1652,14 +1649,12 @@
         <v>7</v>
       </c>
       <c r="F29" s="8">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="G29" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="H29" s="22" t="s">
-        <v>45</v>
-      </c>
+      <c r="H29" s="22"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -1682,7 +1677,7 @@
         <v>0.9</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H30" s="22"/>
       <c r="I30" s="4"/>
@@ -1707,7 +1702,7 @@
         <v>0.9</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" s="22"/>
       <c r="I31" s="4"/>
@@ -1732,10 +1727,10 @@
         <v>0.85</v>
       </c>
       <c r="G32" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H32" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>

--- a/PatternRecognition-Schedule.xlsx
+++ b/PatternRecognition-Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Career\01. IE (Industrial Engineering)\00. Univesity\PHD\Exam Log\WarLog-2026.01.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176E82E4-B519-4FFF-9B48-9B5F1D8DE1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC21B8BB-47B6-4467-9FF7-2E5BBA646ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39CDB2C7-528F-45AA-A1B4-46CB04FC935A}"/>
   </bookViews>
@@ -936,7 +936,7 @@
       <pane xSplit="3" ySplit="8" topLeftCell="D22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
+      <selection pane="bottomRight" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/PatternRecognition-Schedule.xlsx
+++ b/PatternRecognition-Schedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Career\01. IE (Industrial Engineering)\00. Univesity\PHD\Exam Log\WarLog-2026.01.10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Career\01. IE (Industrial Engineering)\00. Univesity\PHD\Exam Log\blackoutPhdPreparation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC21B8BB-47B6-4467-9FF7-2E5BBA646ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A55568-E16F-4648-A66E-9762D0226115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39CDB2C7-528F-45AA-A1B4-46CB04FC935A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="51">
   <si>
     <t>Duration</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>2025.01.18</t>
+  </si>
+  <si>
+    <t>Completing ML-MAL&amp;MAP</t>
   </si>
 </sst>
 </file>
@@ -933,10 +936,10 @@
   <dimension ref="B1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="D22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="H27" sqref="H27"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -993,7 +996,7 @@
         <v>26</v>
       </c>
       <c r="F3" s="8">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G3" s="21" t="s">
         <v>27</v>
@@ -1022,7 +1025,7 @@
         <v>26</v>
       </c>
       <c r="F4" s="8">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G4" s="21" t="s">
         <v>28</v>
@@ -1051,7 +1054,7 @@
         <v>26</v>
       </c>
       <c r="F5" s="8">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G5" s="21" t="s">
         <v>29</v>
@@ -1085,7 +1088,9 @@
       <c r="G6" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="22"/>
+      <c r="H6" s="22" t="s">
+        <v>50</v>
+      </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="13">

--- a/PatternRecognition-Schedule.xlsx
+++ b/PatternRecognition-Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Career\01. IE (Industrial Engineering)\00. Univesity\PHD\Exam Log\blackoutPhdPreparation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A55568-E16F-4648-A66E-9762D0226115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9ACE359-1EBE-44BB-96C0-C13215330EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39CDB2C7-528F-45AA-A1B4-46CB04FC935A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="51">
   <si>
     <t>Duration</t>
   </si>
@@ -195,7 +195,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,6 +235,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -480,14 +487,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -564,15 +572,49 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="4" fillId="4" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Accent3" xfId="4" builtinId="37"/>
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -933,13 +975,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97E6ABC-EF99-4767-B534-8AB459485FA1}">
-  <dimension ref="B1:L33"/>
+  <dimension ref="B1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomRight" activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -952,10 +994,12 @@
     <col min="8" max="8" width="23.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -982,7 +1026,7 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15" ht="18" x14ac:dyDescent="0.3">
       <c r="B3" s="5">
         <v>1</v>
       </c>
@@ -1010,8 +1054,14 @@
       <c r="L3" s="10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="N3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="18" x14ac:dyDescent="0.3">
       <c r="B4" s="5">
         <v>2</v>
       </c>
@@ -1039,8 +1089,14 @@
       <c r="L4" s="12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="N4" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="18" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
         <v>3</v>
       </c>
@@ -1068,8 +1124,14 @@
       <c r="L5" s="14" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="N5" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="5">
         <v>4</v>
       </c>
@@ -1099,8 +1161,14 @@
       <c r="L6" s="14" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="N6" s="17">
+        <v>1</v>
+      </c>
+      <c r="O6" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="18" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>5</v>
       </c>
@@ -1129,7 +1197,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="5">
         <v>6</v>
       </c>
@@ -1158,7 +1226,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:15" ht="18" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <v>7</v>
       </c>
@@ -1183,7 +1251,7 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:15" ht="18" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
         <v>8</v>
       </c>
@@ -1208,7 +1276,7 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:15" ht="18" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
         <v>9</v>
       </c>
@@ -1233,7 +1301,7 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:15" ht="18" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <v>10</v>
       </c>
@@ -1258,7 +1326,7 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:15" ht="18" x14ac:dyDescent="0.3">
       <c r="B13" s="5">
         <v>11</v>
       </c>
@@ -1283,7 +1351,7 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:15" ht="18" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
         <v>12</v>
       </c>
@@ -1308,7 +1376,7 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:15" ht="18" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
         <v>13</v>
       </c>
@@ -1333,7 +1401,7 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:15" ht="18" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
         <v>14</v>
       </c>
@@ -1757,14 +1825,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F3:F32">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
-      <formula>0.9</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThan">
-      <formula>0.89</formula>
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PatternRecognition-Schedule.xlsx
+++ b/PatternRecognition-Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Career\01. IE (Industrial Engineering)\00. Univesity\PHD\Exam Log\blackoutPhdPreparation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9ACE359-1EBE-44BB-96C0-C13215330EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74203AA9-A9BC-49F1-A66C-77E190D2E5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39CDB2C7-528F-45AA-A1B4-46CB04FC935A}"/>
   </bookViews>
@@ -584,68 +584,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -981,7 +920,7 @@
       <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="N22" sqref="N22"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1145,7 +1084,7 @@
         <v>26</v>
       </c>
       <c r="F6" s="8">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G6" s="21" t="s">
         <v>30</v>
@@ -1182,7 +1121,7 @@
         <v>26</v>
       </c>
       <c r="F7" s="8">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G7" s="21" t="s">
         <v>30</v>
@@ -1211,7 +1150,7 @@
         <v>26</v>
       </c>
       <c r="F8" s="8">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G8" s="21" t="s">
         <v>31</v>
@@ -1240,7 +1179,7 @@
         <v>26</v>
       </c>
       <c r="F9" s="8">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G9" s="21" t="s">
         <v>32</v>
@@ -1265,7 +1204,7 @@
         <v>26</v>
       </c>
       <c r="F10" s="8">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G10" s="21" t="s">
         <v>33</v>
@@ -1290,7 +1229,7 @@
         <v>26</v>
       </c>
       <c r="F11" s="8">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G11" s="21" t="s">
         <v>34</v>
@@ -1315,7 +1254,7 @@
         <v>26</v>
       </c>
       <c r="F12" s="8">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G12" s="21" t="s">
         <v>35</v>
@@ -1340,7 +1279,7 @@
         <v>26</v>
       </c>
       <c r="F13" s="8">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G13" s="21" t="s">
         <v>36</v>

--- a/PatternRecognition-Schedule.xlsx
+++ b/PatternRecognition-Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Career\01. IE (Industrial Engineering)\00. Univesity\PHD\Exam Log\blackoutPhdPreparation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74203AA9-A9BC-49F1-A66C-77E190D2E5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D0978F-BA8A-4E80-A34B-A70122D52DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39CDB2C7-528F-45AA-A1B4-46CB04FC935A}"/>
   </bookViews>
@@ -917,10 +917,10 @@
   <dimension ref="B1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6:F13"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/PatternRecognition-Schedule.xlsx
+++ b/PatternRecognition-Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Career\01. IE (Industrial Engineering)\00. Univesity\PHD\Exam Log\blackoutPhdPreparation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D0978F-BA8A-4E80-A34B-A70122D52DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAF1B96-18B6-44E8-9647-FF8194231F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39CDB2C7-528F-45AA-A1B4-46CB04FC935A}"/>
   </bookViews>
@@ -917,10 +917,10 @@
   <dimension ref="B1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
